--- a/data/Table_S1.xlsx
+++ b/data/Table_S1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="434">
   <si>
     <t>Locus</t>
   </si>
@@ -245,9 +245,6 @@
   </si>
   <si>
     <t>[TCTA]8 TCTG TCTA</t>
-  </si>
-  <si>
-    <t>rs74640515</t>
   </si>
   <si>
     <r>
@@ -574,9 +571,6 @@
     <t>TCAAAAT</t>
   </si>
   <si>
-    <t>rs72009062</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -616,9 +610,6 @@
     <t>[TATC]7</t>
   </si>
   <si>
-    <t>rs7789995</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -701,9 +692,6 @@
   </si>
   <si>
     <t>C [TATC]9</t>
-  </si>
-  <si>
-    <t>rs7789995, rs767974915, rs767974915, rs767974915</t>
   </si>
   <si>
     <r>
@@ -965,9 +953,6 @@
     <t>[GGAA]13</t>
   </si>
   <si>
-    <t>rs563636310</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1073,9 +1058,6 @@
   </si>
   <si>
     <t>[AGAT]12 [AGAC]6 AGAT</t>
-  </si>
-  <si>
-    <t>rs138635218</t>
   </si>
   <si>
     <r>
@@ -1369,9 +1351,6 @@
     <t>[TATC]8 AATC</t>
   </si>
   <si>
-    <t>rs9546005</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u/>
@@ -1548,9 +1527,6 @@
     <t>TCATTGAAAGACAAAACAGAGATGGATGATAGATAC</t>
   </si>
   <si>
-    <t>rs563997442</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1585,9 +1561,6 @@
   </si>
   <si>
     <t>[GATA]9</t>
-  </si>
-  <si>
-    <t>rs11642858</t>
   </si>
   <si>
     <r>
@@ -2058,9 +2031,6 @@
   </si>
   <si>
     <t>[AAAGA]12</t>
-  </si>
-  <si>
-    <t>rs186259515</t>
   </si>
   <si>
     <r>
@@ -3753,9 +3723,6 @@
       <c r="C72" t="s">
         <v>12</v>
       </c>
-      <c r="D72" t="s">
-        <v>77</v>
-      </c>
       <c r="E72">
         <v>22</v>
       </c>
@@ -3763,7 +3730,7 @@
         <v>0.0524</v>
       </c>
       <c r="G72" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H72" t="s">
         <v>75</v>
@@ -3800,7 +3767,7 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E74">
         <v>6</v>
@@ -3823,7 +3790,7 @@
         <v>11.3</v>
       </c>
       <c r="C75" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E75">
         <v>32</v>
@@ -3869,7 +3836,7 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3880,7 +3847,7 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3891,7 +3858,7 @@
         <v>12.3</v>
       </c>
       <c r="C79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3925,7 +3892,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E81">
         <v>11</v>
@@ -3948,7 +3915,7 @@
         <v>13.3</v>
       </c>
       <c r="C82" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3971,7 +3938,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E83">
         <v>99</v>
@@ -3994,7 +3961,7 @@
         <v>14.1</v>
       </c>
       <c r="C84" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -4005,7 +3972,7 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -4028,7 +3995,7 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -4050,7 +4017,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4064,13 +4031,13 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B90">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -4079,18 +4046,18 @@
         <v>0.0048</v>
       </c>
       <c r="H90" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B91">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E91">
         <v>237</v>
@@ -4099,18 +4066,18 @@
         <v>0.5643</v>
       </c>
       <c r="H91" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E92">
         <v>33</v>
@@ -4119,18 +4086,18 @@
         <v>0.0786</v>
       </c>
       <c r="H92" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E93">
         <v>33</v>
@@ -4139,18 +4106,18 @@
         <v>0.0786</v>
       </c>
       <c r="H93" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B94">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E94">
         <v>103</v>
@@ -4159,18 +4126,18 @@
         <v>0.2452</v>
       </c>
       <c r="H94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B95">
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E95">
         <v>7</v>
@@ -4179,18 +4146,18 @@
         <v>0.0167</v>
       </c>
       <c r="H95" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B96">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4199,7 +4166,7 @@
         <v>0.0024</v>
       </c>
       <c r="H96" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4209,7 +4176,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4223,13 +4190,13 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B100">
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -4238,32 +4205,32 @@
         <v>0.0048</v>
       </c>
       <c r="G100" t="s">
+        <v>100</v>
+      </c>
+      <c r="H100" t="s">
         <v>101</v>
-      </c>
-      <c r="H100" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B101">
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B102">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E102">
         <v>51</v>
@@ -4272,21 +4239,21 @@
         <v>0.1214</v>
       </c>
       <c r="G102" t="s">
+        <v>100</v>
+      </c>
+      <c r="H102" t="s">
         <v>101</v>
-      </c>
-      <c r="H102" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B103">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E103">
         <v>9</v>
@@ -4295,21 +4262,21 @@
         <v>0.0214</v>
       </c>
       <c r="G103" t="s">
+        <v>100</v>
+      </c>
+      <c r="H103" t="s">
         <v>101</v>
-      </c>
-      <c r="H103" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B104">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E104">
         <v>83</v>
@@ -4318,21 +4285,21 @@
         <v>0.1976</v>
       </c>
       <c r="G104" t="s">
+        <v>100</v>
+      </c>
+      <c r="H104" t="s">
         <v>101</v>
-      </c>
-      <c r="H104" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E105">
         <v>10</v>
@@ -4341,21 +4308,21 @@
         <v>0.0238</v>
       </c>
       <c r="G105" t="s">
+        <v>100</v>
+      </c>
+      <c r="H105" t="s">
         <v>101</v>
-      </c>
-      <c r="H105" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B106">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -4364,21 +4331,21 @@
         <v>0.0071</v>
       </c>
       <c r="G106" t="s">
+        <v>100</v>
+      </c>
+      <c r="H106" t="s">
         <v>101</v>
-      </c>
-      <c r="H106" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B107">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E107">
         <v>62</v>
@@ -4387,21 +4354,21 @@
         <v>0.1476</v>
       </c>
       <c r="G107" t="s">
+        <v>100</v>
+      </c>
+      <c r="H107" t="s">
         <v>101</v>
-      </c>
-      <c r="H107" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B108">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E108">
         <v>35</v>
@@ -4410,21 +4377,21 @@
         <v>0.0833</v>
       </c>
       <c r="G108" t="s">
+        <v>100</v>
+      </c>
+      <c r="H108" t="s">
         <v>101</v>
-      </c>
-      <c r="H108" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B109">
         <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -4433,21 +4400,21 @@
         <v>0.0048</v>
       </c>
       <c r="G109" t="s">
+        <v>100</v>
+      </c>
+      <c r="H109" t="s">
         <v>101</v>
-      </c>
-      <c r="H109" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B110">
         <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E110">
         <v>41</v>
@@ -4456,21 +4423,21 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="G110" t="s">
+        <v>100</v>
+      </c>
+      <c r="H110" t="s">
         <v>101</v>
-      </c>
-      <c r="H110" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B111">
         <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E111">
         <v>38</v>
@@ -4479,21 +4446,21 @@
         <v>0.0905</v>
       </c>
       <c r="G111" t="s">
+        <v>100</v>
+      </c>
+      <c r="H111" t="s">
         <v>101</v>
-      </c>
-      <c r="H111" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B112">
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -4502,21 +4469,21 @@
         <v>0.0024</v>
       </c>
       <c r="G112" t="s">
+        <v>100</v>
+      </c>
+      <c r="H112" t="s">
         <v>101</v>
-      </c>
-      <c r="H112" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B113">
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -4525,21 +4492,21 @@
         <v>0.0095</v>
       </c>
       <c r="G113" t="s">
+        <v>100</v>
+      </c>
+      <c r="H113" t="s">
         <v>101</v>
-      </c>
-      <c r="H113" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B114">
         <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -4548,21 +4515,21 @@
         <v>0.0048</v>
       </c>
       <c r="G114" t="s">
+        <v>100</v>
+      </c>
+      <c r="H114" t="s">
         <v>101</v>
-      </c>
-      <c r="H114" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B115">
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E115">
         <v>68</v>
@@ -4571,21 +4538,21 @@
         <v>0.1619</v>
       </c>
       <c r="G115" t="s">
+        <v>100</v>
+      </c>
+      <c r="H115" t="s">
         <v>101</v>
-      </c>
-      <c r="H115" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B116">
         <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -4594,21 +4561,21 @@
         <v>0.0048</v>
       </c>
       <c r="G116" t="s">
+        <v>100</v>
+      </c>
+      <c r="H116" t="s">
         <v>101</v>
-      </c>
-      <c r="H116" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B117">
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -4617,21 +4584,21 @@
         <v>0.0095</v>
       </c>
       <c r="G117" t="s">
+        <v>100</v>
+      </c>
+      <c r="H117" t="s">
         <v>101</v>
-      </c>
-      <c r="H117" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B118">
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4640,10 +4607,10 @@
         <v>0.0024</v>
       </c>
       <c r="G118" t="s">
+        <v>100</v>
+      </c>
+      <c r="H118" t="s">
         <v>101</v>
-      </c>
-      <c r="H118" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4653,7 +4620,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4667,13 +4634,13 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4682,21 +4649,21 @@
         <v>0.0024</v>
       </c>
       <c r="G122" t="s">
+        <v>122</v>
+      </c>
+      <c r="H122" t="s">
         <v>123</v>
-      </c>
-      <c r="H122" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B123">
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E123">
         <v>3</v>
@@ -4705,32 +4672,32 @@
         <v>0.0071</v>
       </c>
       <c r="G123" t="s">
+        <v>122</v>
+      </c>
+      <c r="H123" t="s">
         <v>123</v>
-      </c>
-      <c r="H123" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B124">
         <v>18.2</v>
       </c>
       <c r="C124" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B125">
         <v>18.3</v>
       </c>
       <c r="C125" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4739,21 +4706,21 @@
         <v>0.0024</v>
       </c>
       <c r="G125" t="s">
+        <v>122</v>
+      </c>
+      <c r="H125" t="s">
         <v>123</v>
-      </c>
-      <c r="H125" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B126">
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E126">
         <v>31</v>
@@ -4762,32 +4729,32 @@
         <v>0.0738</v>
       </c>
       <c r="G126" t="s">
+        <v>122</v>
+      </c>
+      <c r="H126" t="s">
         <v>123</v>
-      </c>
-      <c r="H126" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B127">
         <v>19.2</v>
       </c>
       <c r="C127" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B128">
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E128">
         <v>63</v>
@@ -4796,21 +4763,21 @@
         <v>0.15</v>
       </c>
       <c r="G128" t="s">
+        <v>122</v>
+      </c>
+      <c r="H128" t="s">
         <v>123</v>
-      </c>
-      <c r="H128" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B129">
         <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E129">
         <v>89</v>
@@ -4819,21 +4786,21 @@
         <v>0.2119</v>
       </c>
       <c r="G129" t="s">
+        <v>122</v>
+      </c>
+      <c r="H129" t="s">
         <v>123</v>
-      </c>
-      <c r="H129" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B130">
         <v>21.2</v>
       </c>
       <c r="C130" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -4842,21 +4809,21 @@
         <v>0.0024</v>
       </c>
       <c r="G130" t="s">
+        <v>122</v>
+      </c>
+      <c r="H130" t="s">
         <v>123</v>
-      </c>
-      <c r="H130" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B131">
         <v>22</v>
       </c>
       <c r="C131" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E131">
         <v>75</v>
@@ -4865,21 +4832,21 @@
         <v>0.1786</v>
       </c>
       <c r="G131" t="s">
+        <v>122</v>
+      </c>
+      <c r="H131" t="s">
         <v>123</v>
-      </c>
-      <c r="H131" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B132">
         <v>22.2</v>
       </c>
       <c r="C132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E132">
         <v>6</v>
@@ -4888,21 +4855,21 @@
         <v>0.0143</v>
       </c>
       <c r="G132" t="s">
+        <v>122</v>
+      </c>
+      <c r="H132" t="s">
         <v>123</v>
-      </c>
-      <c r="H132" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B133">
         <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E133">
         <v>49</v>
@@ -4911,32 +4878,32 @@
         <v>0.1167</v>
       </c>
       <c r="G133" t="s">
+        <v>122</v>
+      </c>
+      <c r="H133" t="s">
         <v>123</v>
-      </c>
-      <c r="H133" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B134">
         <v>23.1</v>
       </c>
       <c r="C134" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B135">
         <v>23.2</v>
       </c>
       <c r="C135" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -4945,21 +4912,21 @@
         <v>0.0048</v>
       </c>
       <c r="G135" t="s">
+        <v>122</v>
+      </c>
+      <c r="H135" t="s">
         <v>123</v>
-      </c>
-      <c r="H135" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136">
         <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -4968,21 +4935,21 @@
         <v>0.0071</v>
       </c>
       <c r="G136" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H136" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B137">
         <v>24</v>
       </c>
       <c r="C137" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E137">
         <v>49</v>
@@ -4991,43 +4958,43 @@
         <v>0.1167</v>
       </c>
       <c r="G137" t="s">
+        <v>122</v>
+      </c>
+      <c r="H137" t="s">
         <v>123</v>
-      </c>
-      <c r="H137" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B138">
         <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B139">
         <v>24.2</v>
       </c>
       <c r="C139" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B140">
         <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -5036,21 +5003,21 @@
         <v>0.0024</v>
       </c>
       <c r="G140" t="s">
+        <v>122</v>
+      </c>
+      <c r="H140" t="s">
         <v>123</v>
-      </c>
-      <c r="H140" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B141">
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E141">
         <v>24</v>
@@ -5059,32 +5026,32 @@
         <v>0.0571</v>
       </c>
       <c r="G141" t="s">
+        <v>122</v>
+      </c>
+      <c r="H141" t="s">
         <v>123</v>
-      </c>
-      <c r="H141" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B142">
         <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B143">
         <v>26</v>
       </c>
       <c r="C143" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E143">
         <v>12</v>
@@ -5093,21 +5060,21 @@
         <v>0.0286</v>
       </c>
       <c r="G143" t="s">
+        <v>122</v>
+      </c>
+      <c r="H143" t="s">
         <v>123</v>
-      </c>
-      <c r="H143" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B144">
         <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -5116,10 +5083,10 @@
         <v>0.0048</v>
       </c>
       <c r="G144" t="s">
+        <v>122</v>
+      </c>
+      <c r="H144" t="s">
         <v>123</v>
-      </c>
-      <c r="H144" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5129,7 +5096,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -5143,13 +5110,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -5158,21 +5125,21 @@
         <v>0.0024</v>
       </c>
       <c r="G148" t="s">
+        <v>148</v>
+      </c>
+      <c r="H148" t="s">
         <v>149</v>
-      </c>
-      <c r="H148" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B149">
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -5181,21 +5148,21 @@
         <v>0.0024</v>
       </c>
       <c r="G149" t="s">
+        <v>148</v>
+      </c>
+      <c r="H149" t="s">
         <v>149</v>
-      </c>
-      <c r="H149" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B150">
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E150">
         <v>15</v>
@@ -5204,21 +5171,21 @@
         <v>0.0357</v>
       </c>
       <c r="G150" t="s">
+        <v>148</v>
+      </c>
+      <c r="H150" t="s">
         <v>149</v>
-      </c>
-      <c r="H150" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B151">
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E151">
         <v>119</v>
@@ -5227,21 +5194,21 @@
         <v>0.2833</v>
       </c>
       <c r="G151" t="s">
+        <v>148</v>
+      </c>
+      <c r="H151" t="s">
         <v>149</v>
-      </c>
-      <c r="H151" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B152">
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E152">
         <v>106</v>
@@ -5250,21 +5217,21 @@
         <v>0.2524</v>
       </c>
       <c r="G152" t="s">
+        <v>148</v>
+      </c>
+      <c r="H152" t="s">
         <v>149</v>
-      </c>
-      <c r="H152" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B153">
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E153">
         <v>134</v>
@@ -5273,21 +5240,21 @@
         <v>0.319</v>
       </c>
       <c r="G153" t="s">
+        <v>148</v>
+      </c>
+      <c r="H153" t="s">
         <v>149</v>
-      </c>
-      <c r="H153" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B154">
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E154">
         <v>37</v>
@@ -5296,21 +5263,21 @@
         <v>0.0881</v>
       </c>
       <c r="G154" t="s">
+        <v>148</v>
+      </c>
+      <c r="H154" t="s">
         <v>149</v>
-      </c>
-      <c r="H154" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B155">
         <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -5319,21 +5286,21 @@
         <v>0.0048</v>
       </c>
       <c r="G155" t="s">
+        <v>148</v>
+      </c>
+      <c r="H155" t="s">
         <v>149</v>
-      </c>
-      <c r="H155" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -5342,10 +5309,10 @@
         <v>0.0024</v>
       </c>
       <c r="G156" t="s">
+        <v>148</v>
+      </c>
+      <c r="H156" t="s">
         <v>149</v>
-      </c>
-      <c r="H156" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5355,7 +5322,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5369,13 +5336,13 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B160">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -5384,35 +5351,32 @@
         <v>0.0024</v>
       </c>
       <c r="G160" t="s">
+        <v>159</v>
+      </c>
+      <c r="H160" t="s">
         <v>160</v>
-      </c>
-      <c r="H160" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B161">
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>151</v>
-      </c>
-      <c r="D162" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -5421,35 +5385,32 @@
         <v>0.0024</v>
       </c>
       <c r="G162" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H162" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B164">
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>152</v>
-      </c>
-      <c r="D164" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="E164">
         <v>28</v>
@@ -5458,21 +5419,21 @@
         <v>0.0667</v>
       </c>
       <c r="G164" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H164" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B165">
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E165">
         <v>23</v>
@@ -5481,24 +5442,21 @@
         <v>0.0548</v>
       </c>
       <c r="G165" t="s">
+        <v>159</v>
+      </c>
+      <c r="H165" t="s">
         <v>160</v>
-      </c>
-      <c r="H165" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B166">
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>153</v>
-      </c>
-      <c r="D166" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E166">
         <v>11</v>
@@ -5507,21 +5465,21 @@
         <v>0.0262</v>
       </c>
       <c r="G166" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H166" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B167">
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E167">
         <v>110</v>
@@ -5530,24 +5488,21 @@
         <v>0.2619</v>
       </c>
       <c r="G167" t="s">
+        <v>159</v>
+      </c>
+      <c r="H167" t="s">
         <v>160</v>
-      </c>
-      <c r="H167" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B168">
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>154</v>
-      </c>
-      <c r="D168" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="E168">
         <v>11</v>
@@ -5556,21 +5511,21 @@
         <v>0.0262</v>
       </c>
       <c r="G168" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B169">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E169">
         <v>104</v>
@@ -5579,24 +5534,21 @@
         <v>0.2476</v>
       </c>
       <c r="G169" t="s">
+        <v>159</v>
+      </c>
+      <c r="H169" t="s">
         <v>160</v>
-      </c>
-      <c r="H169" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B170">
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>155</v>
-      </c>
-      <c r="D170" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E170">
         <v>40</v>
@@ -5605,21 +5557,21 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="G170" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H170" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B171">
         <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E171">
         <v>39</v>
@@ -5628,24 +5580,21 @@
         <v>0.0929</v>
       </c>
       <c r="G171" t="s">
+        <v>159</v>
+      </c>
+      <c r="H171" t="s">
         <v>160</v>
-      </c>
-      <c r="H171" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>156</v>
-      </c>
-      <c r="D172" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E172">
         <v>32</v>
@@ -5654,21 +5603,21 @@
         <v>0.0762</v>
       </c>
       <c r="G172" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H172" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B173">
         <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E173">
         <v>6</v>
@@ -5677,24 +5626,21 @@
         <v>0.0143</v>
       </c>
       <c r="G173" t="s">
+        <v>159</v>
+      </c>
+      <c r="H173" t="s">
         <v>160</v>
-      </c>
-      <c r="H173" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B174">
         <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>157</v>
-      </c>
-      <c r="D174" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -5703,21 +5649,21 @@
         <v>0.0048</v>
       </c>
       <c r="G174" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B175">
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5727,7 +5673,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -5741,16 +5687,13 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B179">
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>165</v>
-      </c>
-      <c r="D179" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E179">
         <v>6</v>
@@ -5759,23 +5702,20 @@
         <v>0.0143</v>
       </c>
       <c r="G179" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H179" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B180">
         <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>169</v>
-      </c>
-      <c r="D180" t="s">
         <v>166</v>
       </c>
       <c r="E180">
@@ -5785,24 +5725,24 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="G180" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H180" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B181">
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D181" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E181">
         <v>30</v>
@@ -5811,24 +5751,21 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="G181" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H181" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B182">
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>172</v>
-      </c>
-      <c r="D182" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E182">
         <v>3</v>
@@ -5837,24 +5774,21 @@
         <v>0.0071</v>
       </c>
       <c r="G182" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H182" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B183">
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>173</v>
-      </c>
-      <c r="D183" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="E183">
         <v>64</v>
@@ -5863,24 +5797,24 @@
         <v>0.1524</v>
       </c>
       <c r="G183" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H183" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B184">
         <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D184" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E184">
         <v>5</v>
@@ -5889,24 +5823,21 @@
         <v>0.0119</v>
       </c>
       <c r="G184" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H184" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B185">
         <v>9.1</v>
       </c>
       <c r="C185" t="s">
-        <v>174</v>
-      </c>
-      <c r="D185" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -5915,21 +5846,21 @@
         <v>0.0024</v>
       </c>
       <c r="G185" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H185" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B186">
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E186">
         <v>14</v>
@@ -5938,24 +5869,21 @@
         <v>0.0333</v>
       </c>
       <c r="G186" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H186" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B187">
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>177</v>
-      </c>
-      <c r="D187" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="E187">
         <v>75</v>
@@ -5964,21 +5892,21 @@
         <v>0.1786</v>
       </c>
       <c r="G187" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H187" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B188">
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E188">
         <v>10</v>
@@ -5987,24 +5915,21 @@
         <v>0.0238</v>
       </c>
       <c r="G188" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H188" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B189">
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>179</v>
-      </c>
-      <c r="D189" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="E189">
         <v>90</v>
@@ -6013,21 +5938,21 @@
         <v>0.2143</v>
       </c>
       <c r="G189" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H189" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B190">
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E190">
         <v>9</v>
@@ -6036,24 +5961,21 @@
         <v>0.0214</v>
       </c>
       <c r="G190" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H190" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B191">
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>180</v>
-      </c>
-      <c r="D191" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E191">
         <v>49</v>
@@ -6062,21 +5984,21 @@
         <v>0.1167</v>
       </c>
       <c r="G191" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H191" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B192">
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E192">
         <v>3</v>
@@ -6085,24 +6007,21 @@
         <v>0.0071</v>
       </c>
       <c r="G192" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H192" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B193">
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>181</v>
-      </c>
-      <c r="D193" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E193">
         <v>10</v>
@@ -6111,21 +6030,21 @@
         <v>0.0238</v>
       </c>
       <c r="G193" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H193" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B194">
         <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -6134,24 +6053,21 @@
         <v>0.0071</v>
       </c>
       <c r="G194" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H194" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B195">
         <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>182</v>
-      </c>
-      <c r="D195" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -6160,10 +6076,10 @@
         <v>0.0071</v>
       </c>
       <c r="G195" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="H195" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6173,7 +6089,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -6187,13 +6103,13 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B199">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E199">
         <v>4</v>
@@ -6202,18 +6118,18 @@
         <v>0.0095</v>
       </c>
       <c r="H199" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B200">
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E200">
         <v>5</v>
@@ -6222,12 +6138,12 @@
         <v>0.0119</v>
       </c>
       <c r="H200" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B201">
         <v>10</v>
@@ -6242,12 +6158,12 @@
         <v>0.0548</v>
       </c>
       <c r="H201" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B202">
         <v>11</v>
@@ -6262,18 +6178,18 @@
         <v>0.0571</v>
       </c>
       <c r="H202" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B203">
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -6282,12 +6198,12 @@
         <v>0.0024</v>
       </c>
       <c r="H203" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B204">
         <v>12</v>
@@ -6302,18 +6218,18 @@
         <v>0.15</v>
       </c>
       <c r="H204" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B205">
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -6322,18 +6238,18 @@
         <v>0.0024</v>
       </c>
       <c r="H205" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B206">
         <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E206">
         <v>6</v>
@@ -6342,12 +6258,12 @@
         <v>0.0143</v>
       </c>
       <c r="H206" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B207">
         <v>13</v>
@@ -6362,18 +6278,18 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="H207" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B208">
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -6382,18 +6298,18 @@
         <v>0.0024</v>
       </c>
       <c r="H208" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B209">
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E209">
         <v>98</v>
@@ -6402,12 +6318,12 @@
         <v>0.2333</v>
       </c>
       <c r="H209" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B210">
         <v>14</v>
@@ -6422,18 +6338,18 @@
         <v>0.0333</v>
       </c>
       <c r="H210" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B211">
         <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E211">
         <v>27</v>
@@ -6442,18 +6358,18 @@
         <v>0.0643</v>
       </c>
       <c r="H211" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B212">
         <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E212">
         <v>58</v>
@@ -6462,29 +6378,29 @@
         <v>0.1381</v>
       </c>
       <c r="H212" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B213">
         <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B214">
         <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E214">
         <v>34</v>
@@ -6493,18 +6409,18 @@
         <v>0.081</v>
       </c>
       <c r="H214" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B215">
         <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E215">
         <v>18</v>
@@ -6513,18 +6429,18 @@
         <v>0.0429</v>
       </c>
       <c r="H215" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B216">
         <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E216">
         <v>8</v>
@@ -6533,18 +6449,18 @@
         <v>0.019</v>
       </c>
       <c r="H216" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B217">
         <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -6553,18 +6469,18 @@
         <v>0.0024</v>
       </c>
       <c r="H217" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B218">
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -6573,18 +6489,18 @@
         <v>0.0048</v>
       </c>
       <c r="H218" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B219">
         <v>18</v>
       </c>
       <c r="C219" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6594,7 +6510,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -6608,13 +6524,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B223">
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -6623,21 +6539,21 @@
         <v>0.0024</v>
       </c>
       <c r="G223" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H223" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B224">
         <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="E224">
         <v>2</v>
@@ -6646,21 +6562,21 @@
         <v>0.0048</v>
       </c>
       <c r="G224" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H224" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B225">
         <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E225">
         <v>14</v>
@@ -6669,24 +6585,21 @@
         <v>0.0333</v>
       </c>
       <c r="G225" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H225" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B226">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>204</v>
-      </c>
-      <c r="D226" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -6695,21 +6608,21 @@
         <v>0.0024</v>
       </c>
       <c r="G226" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H226" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B227">
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E227">
         <v>84</v>
@@ -6718,21 +6631,21 @@
         <v>0.2</v>
       </c>
       <c r="G227" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H227" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B228">
         <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E228">
         <v>123</v>
@@ -6741,21 +6654,21 @@
         <v>0.2929</v>
       </c>
       <c r="G228" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H228" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B229">
         <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E229">
         <v>120</v>
@@ -6764,21 +6677,21 @@
         <v>0.2857</v>
       </c>
       <c r="G229" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H229" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B230">
         <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E230">
         <v>50</v>
@@ -6787,21 +6700,21 @@
         <v>0.119</v>
       </c>
       <c r="G230" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H230" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B231">
         <v>16.3</v>
       </c>
       <c r="C231" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -6810,21 +6723,21 @@
         <v>0.0024</v>
       </c>
       <c r="G231" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H231" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B232">
         <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E232">
         <v>18</v>
@@ -6833,21 +6746,21 @@
         <v>0.0429</v>
       </c>
       <c r="G232" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H232" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B233">
         <v>18</v>
       </c>
       <c r="C233" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6857,7 +6770,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -6865,13 +6778,13 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B237">
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E237">
         <v>99</v>
@@ -6880,21 +6793,21 @@
         <v>0.2357</v>
       </c>
       <c r="G237" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H237" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B238">
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E238">
         <v>76</v>
@@ -6903,21 +6816,21 @@
         <v>0.181</v>
       </c>
       <c r="G238" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H238" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B239">
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E239">
         <v>50</v>
@@ -6926,21 +6839,21 @@
         <v>0.119</v>
       </c>
       <c r="G239" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H239" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B240">
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E240">
         <v>74</v>
@@ -6949,21 +6862,21 @@
         <v>0.1762</v>
       </c>
       <c r="G240" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H240" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B241">
         <v>9.300000000000001</v>
       </c>
       <c r="C241" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="E241">
         <v>119</v>
@@ -6972,21 +6885,21 @@
         <v>0.2833</v>
       </c>
       <c r="G241" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H241" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="B242">
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E242">
         <v>2</v>
@@ -6995,10 +6908,10 @@
         <v>0.0048</v>
       </c>
       <c r="G242" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H242" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7008,7 +6921,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -7022,13 +6935,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B246">
         <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="E246">
         <v>9</v>
@@ -7037,21 +6950,21 @@
         <v>0.0214</v>
       </c>
       <c r="G246" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H246" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B247">
         <v>16</v>
       </c>
       <c r="C247" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="E247">
         <v>10</v>
@@ -7060,32 +6973,32 @@
         <v>0.0238</v>
       </c>
       <c r="G247" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H247" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B248">
         <v>17</v>
       </c>
       <c r="C248" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B249">
         <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="E249">
         <v>44</v>
@@ -7094,21 +7007,21 @@
         <v>0.1048</v>
       </c>
       <c r="G249" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H249" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B250">
         <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E250">
         <v>6</v>
@@ -7117,21 +7030,21 @@
         <v>0.0143</v>
       </c>
       <c r="G250" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H250" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B251">
         <v>17.3</v>
       </c>
       <c r="C251" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="E251">
         <v>10</v>
@@ -7140,21 +7053,21 @@
         <v>0.0238</v>
       </c>
       <c r="G251" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H251" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B252">
         <v>18</v>
       </c>
       <c r="C252" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="E252">
         <v>4</v>
@@ -7163,21 +7076,21 @@
         <v>0.0095</v>
       </c>
       <c r="G252" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H252" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B253">
         <v>18</v>
       </c>
       <c r="C253" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="E253">
         <v>102</v>
@@ -7186,21 +7099,21 @@
         <v>0.2429</v>
       </c>
       <c r="G253" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H253" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B254">
         <v>18</v>
       </c>
       <c r="C254" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="E254">
         <v>2</v>
@@ -7209,21 +7122,21 @@
         <v>0.0048</v>
       </c>
       <c r="G254" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H254" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B255">
         <v>18.3</v>
       </c>
       <c r="C255" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E255">
         <v>7</v>
@@ -7232,32 +7145,32 @@
         <v>0.0167</v>
       </c>
       <c r="G255" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H255" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B256">
         <v>19</v>
       </c>
       <c r="C256" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B257">
         <v>19</v>
       </c>
       <c r="C257" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="E257">
         <v>11</v>
@@ -7266,21 +7179,21 @@
         <v>0.0262</v>
       </c>
       <c r="G257" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H257" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B258">
         <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -7289,21 +7202,21 @@
         <v>0.0024</v>
       </c>
       <c r="G258" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H258" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B259">
         <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E259">
         <v>42</v>
@@ -7312,24 +7225,21 @@
         <v>0.1</v>
       </c>
       <c r="G259" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H259" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B260">
         <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>234</v>
-      </c>
-      <c r="D260" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -7338,21 +7248,21 @@
         <v>0.0024</v>
       </c>
       <c r="G260" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H260" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B261">
         <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="E261">
         <v>2</v>
@@ -7361,21 +7271,21 @@
         <v>0.0048</v>
       </c>
       <c r="G261" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H261" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B262">
         <v>19.1</v>
       </c>
       <c r="C262" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -7384,21 +7294,21 @@
         <v>0.0024</v>
       </c>
       <c r="G262" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H262" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B263">
         <v>19.3</v>
       </c>
       <c r="C263" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -7407,43 +7317,43 @@
         <v>0.0024</v>
       </c>
       <c r="G263" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H263" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B264">
         <v>19.3</v>
       </c>
       <c r="C264" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B265">
         <v>20</v>
       </c>
       <c r="C265" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B266">
         <v>20</v>
       </c>
       <c r="C266" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="E266">
         <v>11</v>
@@ -7452,21 +7362,21 @@
         <v>0.0262</v>
       </c>
       <c r="G266" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H266" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B267">
         <v>20</v>
       </c>
       <c r="C267" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -7475,21 +7385,21 @@
         <v>0.0024</v>
       </c>
       <c r="G267" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H267" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B268">
         <v>20</v>
       </c>
       <c r="C268" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -7498,21 +7408,21 @@
         <v>0.0048</v>
       </c>
       <c r="G268" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H268" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B269">
         <v>20</v>
       </c>
       <c r="C269" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="E269">
         <v>14</v>
@@ -7521,21 +7431,21 @@
         <v>0.0333</v>
       </c>
       <c r="G269" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H269" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B270">
         <v>20</v>
       </c>
       <c r="C270" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="E270">
         <v>2</v>
@@ -7544,21 +7454,21 @@
         <v>0.0048</v>
       </c>
       <c r="G270" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H270" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B271">
         <v>20</v>
       </c>
       <c r="C271" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="E271">
         <v>18</v>
@@ -7567,43 +7477,43 @@
         <v>0.0429</v>
       </c>
       <c r="G271" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H271" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B272">
         <v>20</v>
       </c>
       <c r="C272" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B273">
         <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B274">
         <v>20</v>
       </c>
       <c r="C274" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -7612,21 +7522,21 @@
         <v>0.0024</v>
       </c>
       <c r="G274" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H274" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B275">
         <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="E275">
         <v>3</v>
@@ -7635,21 +7545,21 @@
         <v>0.0071</v>
       </c>
       <c r="G275" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H275" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B276">
         <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -7658,21 +7568,21 @@
         <v>0.0024</v>
       </c>
       <c r="G276" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H276" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B277">
         <v>21</v>
       </c>
       <c r="C277" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="E277">
         <v>32</v>
@@ -7681,32 +7591,32 @@
         <v>0.0762</v>
       </c>
       <c r="G277" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H277" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B278">
         <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B279">
         <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="E279">
         <v>3</v>
@@ -7715,21 +7625,21 @@
         <v>0.0071</v>
       </c>
       <c r="G279" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H279" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B280">
         <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="E280">
         <v>6</v>
@@ -7738,21 +7648,21 @@
         <v>0.0143</v>
       </c>
       <c r="G280" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H280" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B281">
         <v>21</v>
       </c>
       <c r="C281" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -7761,21 +7671,21 @@
         <v>0.0024</v>
       </c>
       <c r="G281" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H281" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B282">
         <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="E282">
         <v>3</v>
@@ -7784,32 +7694,32 @@
         <v>0.0071</v>
       </c>
       <c r="G282" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H282" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B283">
         <v>21.3</v>
       </c>
       <c r="C283" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B284">
         <v>22</v>
       </c>
       <c r="C284" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="E284">
         <v>2</v>
@@ -7818,21 +7728,21 @@
         <v>0.0048</v>
       </c>
       <c r="G284" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H284" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B285">
         <v>22</v>
       </c>
       <c r="C285" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="E285">
         <v>4</v>
@@ -7841,21 +7751,21 @@
         <v>0.0095</v>
       </c>
       <c r="G285" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H285" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B286">
         <v>22</v>
       </c>
       <c r="C286" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E286">
         <v>22</v>
@@ -7864,21 +7774,21 @@
         <v>0.0524</v>
       </c>
       <c r="G286" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H286" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B287">
         <v>22</v>
       </c>
       <c r="C287" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -7887,21 +7797,21 @@
         <v>0.0095</v>
       </c>
       <c r="G287" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H287" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B288">
         <v>22</v>
       </c>
       <c r="C288" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -7910,21 +7820,21 @@
         <v>0.0024</v>
       </c>
       <c r="G288" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H288" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B289">
         <v>22</v>
       </c>
       <c r="C289" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -7933,21 +7843,21 @@
         <v>0.0024</v>
       </c>
       <c r="G289" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H289" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B290">
         <v>22</v>
       </c>
       <c r="C290" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -7956,21 +7866,21 @@
         <v>0.0024</v>
       </c>
       <c r="G290" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H290" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B291">
         <v>23</v>
       </c>
       <c r="C291" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="E291">
         <v>2</v>
@@ -7979,21 +7889,21 @@
         <v>0.0048</v>
       </c>
       <c r="G291" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H291" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B292">
         <v>23</v>
       </c>
       <c r="C292" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="E292">
         <v>2</v>
@@ -8002,21 +7912,21 @@
         <v>0.0048</v>
       </c>
       <c r="G292" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H292" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B293">
         <v>23</v>
       </c>
       <c r="C293" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="E293">
         <v>11</v>
@@ -8025,21 +7935,21 @@
         <v>0.0262</v>
       </c>
       <c r="G293" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H293" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B294">
         <v>23</v>
       </c>
       <c r="C294" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="E294">
         <v>8</v>
@@ -8048,32 +7958,32 @@
         <v>0.019</v>
       </c>
       <c r="G294" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H294" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B295">
         <v>24</v>
       </c>
       <c r="C295" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B296">
         <v>24</v>
       </c>
       <c r="C296" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -8082,21 +7992,21 @@
         <v>0.0024</v>
       </c>
       <c r="G296" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H296" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B297">
         <v>24</v>
       </c>
       <c r="C297" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -8105,21 +8015,21 @@
         <v>0.0024</v>
       </c>
       <c r="G297" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H297" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B298">
         <v>24</v>
       </c>
       <c r="C298" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -8128,21 +8038,21 @@
         <v>0.0024</v>
       </c>
       <c r="G298" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H298" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B299">
         <v>24</v>
       </c>
       <c r="C299" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -8151,54 +8061,54 @@
         <v>0.0024</v>
       </c>
       <c r="G299" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="H299" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B300">
         <v>25</v>
       </c>
       <c r="C300" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B301">
         <v>25</v>
       </c>
       <c r="C301" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B302">
         <v>25</v>
       </c>
       <c r="C302" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B303">
         <v>25</v>
       </c>
       <c r="C303" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8208,7 +8118,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -8222,24 +8132,24 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B307">
         <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B308">
         <v>14</v>
       </c>
       <c r="C308" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="E308">
         <v>22</v>
@@ -8248,21 +8158,21 @@
         <v>0.0524</v>
       </c>
       <c r="G308" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="H308" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B309">
         <v>14</v>
       </c>
       <c r="C309" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="E309">
         <v>11</v>
@@ -8271,21 +8181,21 @@
         <v>0.0262</v>
       </c>
       <c r="G309" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H309" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B310">
         <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E310">
         <v>2</v>
@@ -8294,21 +8204,21 @@
         <v>0.0048</v>
       </c>
       <c r="G310" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H310" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B311">
         <v>14</v>
       </c>
       <c r="C311" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="E311">
         <v>3</v>
@@ -8317,21 +8227,21 @@
         <v>0.0071</v>
       </c>
       <c r="G311" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="H311" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B312">
         <v>15</v>
       </c>
       <c r="C312" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="E312">
         <v>20</v>
@@ -8340,21 +8250,21 @@
         <v>0.0476</v>
       </c>
       <c r="G312" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H312" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B313">
         <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="E313">
         <v>6</v>
@@ -8363,21 +8273,21 @@
         <v>0.0143</v>
       </c>
       <c r="G313" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H313" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B314">
         <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="E314">
         <v>19</v>
@@ -8386,21 +8296,21 @@
         <v>0.0452</v>
       </c>
       <c r="G314" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H314" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B315">
         <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="E315">
         <v>55</v>
@@ -8409,21 +8319,21 @@
         <v>0.131</v>
       </c>
       <c r="G315" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H315" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B316">
         <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="E316">
         <v>4</v>
@@ -8432,21 +8342,21 @@
         <v>0.0095</v>
       </c>
       <c r="G316" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H316" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B317">
         <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="E317">
         <v>88</v>
@@ -8455,32 +8365,32 @@
         <v>0.2095</v>
       </c>
       <c r="G317" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H317" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B318">
         <v>17</v>
       </c>
       <c r="C318" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B319">
         <v>17</v>
       </c>
       <c r="C319" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E319">
         <v>2</v>
@@ -8489,21 +8399,21 @@
         <v>0.0048</v>
       </c>
       <c r="G319" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H319" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B320">
         <v>18</v>
       </c>
       <c r="C320" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="E320">
         <v>58</v>
@@ -8512,21 +8422,21 @@
         <v>0.1381</v>
       </c>
       <c r="G320" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H320" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B321">
         <v>19</v>
       </c>
       <c r="C321" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="E321">
         <v>19</v>
@@ -8535,21 +8445,21 @@
         <v>0.0452</v>
       </c>
       <c r="G321" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H321" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B322">
         <v>20</v>
       </c>
       <c r="C322" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="E322">
         <v>3</v>
@@ -8558,10 +8468,10 @@
         <v>0.0071</v>
       </c>
       <c r="G322" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="H322" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8571,7 +8481,7 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -8585,13 +8495,13 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B326">
         <v>8</v>
       </c>
       <c r="C326" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E326">
         <v>59</v>
@@ -8600,21 +8510,21 @@
         <v>0.1405</v>
       </c>
       <c r="G326" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H326" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B327">
         <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -8623,21 +8533,21 @@
         <v>0.0024</v>
       </c>
       <c r="G327" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H327" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B328">
         <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E328">
         <v>54</v>
@@ -8646,32 +8556,32 @@
         <v>0.1286</v>
       </c>
       <c r="G328" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H328" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B329">
         <v>9</v>
       </c>
       <c r="C329" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B330">
         <v>10</v>
       </c>
       <c r="C330" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E330">
         <v>27</v>
@@ -8680,24 +8590,21 @@
         <v>0.0643</v>
       </c>
       <c r="G330" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H330" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B331">
         <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>177</v>
-      </c>
-      <c r="D331" t="s">
-        <v>303</v>
+        <v>173</v>
       </c>
       <c r="E331">
         <v>5</v>
@@ -8706,32 +8613,32 @@
         <v>0.0119</v>
       </c>
       <c r="G331" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H331" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B332">
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B333">
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E333">
         <v>58</v>
@@ -8740,24 +8647,21 @@
         <v>0.1381</v>
       </c>
       <c r="G333" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H333" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B334">
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>179</v>
-      </c>
-      <c r="D334" t="s">
-        <v>303</v>
+        <v>175</v>
       </c>
       <c r="E334">
         <v>61</v>
@@ -8766,24 +8670,24 @@
         <v>0.1452</v>
       </c>
       <c r="G334" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H334" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B335">
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D335" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
       <c r="E335">
         <v>9</v>
@@ -8792,21 +8696,21 @@
         <v>0.0214</v>
       </c>
       <c r="G335" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="H335" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B336">
         <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E336">
         <v>61</v>
@@ -8815,24 +8719,24 @@
         <v>0.1452</v>
       </c>
       <c r="G336" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H336" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B337">
         <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D337" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -8841,24 +8745,21 @@
         <v>0.0024</v>
       </c>
       <c r="G337" t="s">
-        <v>308</v>
+        <v>301</v>
       </c>
       <c r="H337" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B338">
         <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>180</v>
-      </c>
-      <c r="D338" t="s">
-        <v>303</v>
+        <v>176</v>
       </c>
       <c r="E338">
         <v>37</v>
@@ -8867,21 +8768,21 @@
         <v>0.0881</v>
       </c>
       <c r="G338" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H338" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B339">
         <v>13</v>
       </c>
       <c r="C339" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E339">
         <v>21</v>
@@ -8890,24 +8791,21 @@
         <v>0.05</v>
       </c>
       <c r="G339" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H339" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="A340" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B340">
         <v>13</v>
       </c>
       <c r="C340" t="s">
-        <v>181</v>
-      </c>
-      <c r="D340" t="s">
-        <v>303</v>
+        <v>177</v>
       </c>
       <c r="E340">
         <v>8</v>
@@ -8916,32 +8814,32 @@
         <v>0.019</v>
       </c>
       <c r="G340" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H340" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B341">
         <v>13</v>
       </c>
       <c r="C341" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B342">
         <v>14</v>
       </c>
       <c r="C342" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E342">
         <v>6</v>
@@ -8950,24 +8848,21 @@
         <v>0.0143</v>
       </c>
       <c r="G342" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H342" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B343">
         <v>14</v>
       </c>
       <c r="C343" t="s">
-        <v>182</v>
-      </c>
-      <c r="D343" t="s">
-        <v>303</v>
+        <v>178</v>
       </c>
       <c r="E343">
         <v>2</v>
@@ -8976,21 +8871,21 @@
         <v>0.0048</v>
       </c>
       <c r="G343" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H343" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="A344" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B344">
         <v>15</v>
       </c>
       <c r="C344" t="s">
-        <v>309</v>
+        <v>302</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -8999,24 +8894,21 @@
         <v>0.0024</v>
       </c>
       <c r="G344" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H344" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B345">
         <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>309</v>
-      </c>
-      <c r="D345" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -9025,21 +8917,21 @@
         <v>0.0024</v>
       </c>
       <c r="G345" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="H345" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B346">
         <v>17</v>
       </c>
       <c r="C346" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9049,7 +8941,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -9063,13 +8955,13 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B350">
         <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E350">
         <v>40</v>
@@ -9078,29 +8970,29 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="G350" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B351">
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B352">
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E352">
         <v>66</v>
@@ -9109,18 +9001,18 @@
         <v>0.1571</v>
       </c>
       <c r="G352" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B353">
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="E353">
         <v>11</v>
@@ -9129,18 +9021,18 @@
         <v>0.0262</v>
       </c>
       <c r="G353" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B354">
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="E354">
         <v>11</v>
@@ -9149,18 +9041,18 @@
         <v>0.0262</v>
       </c>
       <c r="G354" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B355">
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E355">
         <v>44</v>
@@ -9169,18 +9061,18 @@
         <v>0.1048</v>
       </c>
       <c r="G355" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B356">
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="E356">
         <v>42</v>
@@ -9189,29 +9081,29 @@
         <v>0.1</v>
       </c>
       <c r="G356" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B357">
         <v>11.3</v>
       </c>
       <c r="C357" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B358">
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E358">
         <v>66</v>
@@ -9220,18 +9112,18 @@
         <v>0.1571</v>
       </c>
       <c r="G358" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B359">
         <v>13</v>
       </c>
       <c r="C359" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="E359">
         <v>42</v>
@@ -9240,18 +9132,18 @@
         <v>0.1</v>
       </c>
       <c r="G359" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B360">
         <v>13.4</v>
       </c>
       <c r="C360" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="E360">
         <v>1</v>
@@ -9260,18 +9152,18 @@
         <v>0.0024</v>
       </c>
       <c r="G360" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B361">
         <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>324</v>
+        <v>317</v>
       </c>
       <c r="E361">
         <v>19</v>
@@ -9280,18 +9172,18 @@
         <v>0.0452</v>
       </c>
       <c r="G361" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B362">
         <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>325</v>
+        <v>318</v>
       </c>
       <c r="E362">
         <v>15</v>
@@ -9300,18 +9192,18 @@
         <v>0.0357</v>
       </c>
       <c r="G362" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B363">
         <v>16</v>
       </c>
       <c r="C363" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="E363">
         <v>27</v>
@@ -9320,18 +9212,18 @@
         <v>0.0643</v>
       </c>
       <c r="G363" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B364">
         <v>17</v>
       </c>
       <c r="C364" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="E364">
         <v>11</v>
@@ -9340,18 +9232,18 @@
         <v>0.0262</v>
       </c>
       <c r="G364" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B365">
         <v>18</v>
       </c>
       <c r="C365" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E365">
         <v>14</v>
@@ -9360,18 +9252,18 @@
         <v>0.0333</v>
       </c>
       <c r="G365" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B366">
         <v>19</v>
       </c>
       <c r="C366" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="E366">
         <v>5</v>
@@ -9380,18 +9272,18 @@
         <v>0.0119</v>
       </c>
       <c r="G366" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B367">
         <v>20</v>
       </c>
       <c r="C367" t="s">
-        <v>330</v>
+        <v>323</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -9400,18 +9292,18 @@
         <v>0.0024</v>
       </c>
       <c r="G367" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B368">
         <v>23</v>
       </c>
       <c r="C368" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -9420,7 +9312,7 @@
         <v>0.0024</v>
       </c>
       <c r="G368" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9430,7 +9322,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -9444,13 +9336,13 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B372">
         <v>8</v>
       </c>
       <c r="C372" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -9459,24 +9351,21 @@
         <v>0.0024</v>
       </c>
       <c r="G372" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H372" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B373">
         <v>8</v>
       </c>
       <c r="C373" t="s">
-        <v>333</v>
-      </c>
-      <c r="D373" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E373">
         <v>1</v>
@@ -9485,21 +9374,21 @@
         <v>0.0024</v>
       </c>
       <c r="G373" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="H373" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B374">
         <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="E374">
         <v>31</v>
@@ -9508,24 +9397,21 @@
         <v>0.0738</v>
       </c>
       <c r="G374" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H374" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B375">
         <v>9</v>
       </c>
       <c r="C375" t="s">
-        <v>338</v>
-      </c>
-      <c r="D375" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E375">
         <v>26</v>
@@ -9534,21 +9420,21 @@
         <v>0.0619</v>
       </c>
       <c r="G375" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H375" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B376">
         <v>10</v>
       </c>
       <c r="C376" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E376">
         <v>9</v>
@@ -9557,24 +9443,21 @@
         <v>0.0214</v>
       </c>
       <c r="G376" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H376" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B377">
         <v>10</v>
       </c>
       <c r="C377" t="s">
-        <v>341</v>
-      </c>
-      <c r="D377" t="s">
-        <v>339</v>
+        <v>332</v>
       </c>
       <c r="E377">
         <v>15</v>
@@ -9583,21 +9466,21 @@
         <v>0.0357</v>
       </c>
       <c r="G377" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H377" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B378">
         <v>11</v>
       </c>
       <c r="C378" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E378">
         <v>104</v>
@@ -9606,24 +9489,21 @@
         <v>0.2476</v>
       </c>
       <c r="G378" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H378" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B379">
         <v>11</v>
       </c>
       <c r="C379" t="s">
-        <v>342</v>
-      </c>
-      <c r="D379" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E379">
         <v>3</v>
@@ -9632,21 +9512,21 @@
         <v>0.0071</v>
       </c>
       <c r="G379" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H379" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B380">
         <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E380">
         <v>131</v>
@@ -9655,24 +9535,21 @@
         <v>0.3119</v>
       </c>
       <c r="G380" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H380" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B381">
         <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>343</v>
-      </c>
-      <c r="D381" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -9681,21 +9558,21 @@
         <v>0.0024</v>
       </c>
       <c r="G381" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H381" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B382">
         <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="E382">
         <v>81</v>
@@ -9704,24 +9581,21 @@
         <v>0.1929</v>
       </c>
       <c r="G382" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H382" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B383">
         <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>344</v>
-      </c>
-      <c r="D383" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E383">
         <v>1</v>
@@ -9730,21 +9604,21 @@
         <v>0.0024</v>
       </c>
       <c r="G383" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H383" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B384">
         <v>14</v>
       </c>
       <c r="C384" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E384">
         <v>13</v>
@@ -9753,21 +9627,21 @@
         <v>0.031</v>
       </c>
       <c r="G384" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H384" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>332</v>
+        <v>325</v>
       </c>
       <c r="B385">
         <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="E385">
         <v>1</v>
@@ -9776,10 +9650,10 @@
         <v>0.0024</v>
       </c>
       <c r="G385" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="H385" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -9789,7 +9663,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -9803,13 +9677,13 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B389">
         <v>10</v>
       </c>
       <c r="C389" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E389">
         <v>3</v>
@@ -9818,21 +9692,21 @@
         <v>0.0071</v>
       </c>
       <c r="G389" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H389" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B390">
         <v>11</v>
       </c>
       <c r="C390" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E390">
         <v>6</v>
@@ -9841,21 +9715,21 @@
         <v>0.0143</v>
       </c>
       <c r="G390" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H390" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B391">
         <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="E391">
         <v>51</v>
@@ -9864,21 +9738,21 @@
         <v>0.1214</v>
       </c>
       <c r="G391" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H391" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B392">
         <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E392">
         <v>43</v>
@@ -9887,21 +9761,21 @@
         <v>0.1024</v>
       </c>
       <c r="G392" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H392" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B393">
         <v>14</v>
       </c>
       <c r="C393" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="E393">
         <v>59</v>
@@ -9910,21 +9784,21 @@
         <v>0.1405</v>
       </c>
       <c r="G393" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H393" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B394">
         <v>14</v>
       </c>
       <c r="C394" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="E394">
         <v>2</v>
@@ -9933,21 +9807,21 @@
         <v>0.0048</v>
       </c>
       <c r="G394" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H394" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B395">
         <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E395">
         <v>59</v>
@@ -9956,21 +9830,21 @@
         <v>0.1405</v>
       </c>
       <c r="G395" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H395" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="396" spans="1:8">
       <c r="A396" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B396">
         <v>16</v>
       </c>
       <c r="C396" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="E396">
         <v>85</v>
@@ -9979,21 +9853,21 @@
         <v>0.2024</v>
       </c>
       <c r="G396" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H396" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B397">
         <v>17</v>
       </c>
       <c r="C397" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E397">
         <v>38</v>
@@ -10002,21 +9876,21 @@
         <v>0.0905</v>
       </c>
       <c r="G397" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H397" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B398">
         <v>18</v>
       </c>
       <c r="C398" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E398">
         <v>32</v>
@@ -10025,21 +9899,21 @@
         <v>0.0762</v>
       </c>
       <c r="G398" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H398" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B399">
         <v>19</v>
       </c>
       <c r="C399" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E399">
         <v>20</v>
@@ -10048,21 +9922,21 @@
         <v>0.0476</v>
       </c>
       <c r="G399" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H399" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B400">
         <v>20</v>
       </c>
       <c r="C400" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="E400">
         <v>10</v>
@@ -10071,21 +9945,21 @@
         <v>0.0238</v>
       </c>
       <c r="G400" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H400" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="401" spans="1:8">
       <c r="A401" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B401">
         <v>21</v>
       </c>
       <c r="C401" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="E401">
         <v>4</v>
@@ -10094,21 +9968,21 @@
         <v>0.0095</v>
       </c>
       <c r="G401" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H401" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="402" spans="1:8">
       <c r="A402" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="B402">
         <v>22</v>
       </c>
       <c r="C402" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E402">
         <v>2</v>
@@ -10117,10 +9991,10 @@
         <v>0.0048</v>
       </c>
       <c r="G402" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="H402" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10130,7 +10004,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -10138,68 +10012,68 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B406">
         <v>14.3</v>
       </c>
       <c r="C406" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="407" spans="1:8">
       <c r="A407" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B407">
         <v>14.3</v>
       </c>
       <c r="C407" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B408">
         <v>14.3</v>
       </c>
       <c r="C408" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="A409" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B409">
         <v>15.3</v>
       </c>
       <c r="C409" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B410">
         <v>25</v>
       </c>
       <c r="C410" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B411">
         <v>26</v>
       </c>
       <c r="C411" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="E411">
         <v>1</v>
@@ -10208,21 +10082,21 @@
         <v>0.0024</v>
       </c>
       <c r="G411" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H411" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="412" spans="1:8">
       <c r="A412" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B412">
         <v>27</v>
       </c>
       <c r="C412" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="E412">
         <v>1</v>
@@ -10231,21 +10105,21 @@
         <v>0.0024</v>
       </c>
       <c r="G412" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H412" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="413" spans="1:8">
       <c r="A413" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B413">
         <v>27</v>
       </c>
       <c r="C413" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="E413">
         <v>1</v>
@@ -10254,21 +10128,21 @@
         <v>0.0024</v>
       </c>
       <c r="G413" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H413" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="414" spans="1:8">
       <c r="A414" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B414">
         <v>27</v>
       </c>
       <c r="C414" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="E414">
         <v>11</v>
@@ -10277,21 +10151,21 @@
         <v>0.0262</v>
       </c>
       <c r="G414" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H414" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="A415" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B415">
         <v>28</v>
       </c>
       <c r="C415" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="E415">
         <v>3</v>
@@ -10300,32 +10174,32 @@
         <v>0.0071</v>
       </c>
       <c r="G415" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H415" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="A416" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B416">
         <v>28</v>
       </c>
       <c r="C416" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B417">
         <v>28</v>
       </c>
       <c r="C417" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="E417">
         <v>56</v>
@@ -10334,21 +10208,21 @@
         <v>0.1333</v>
       </c>
       <c r="G417" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H417" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B418">
         <v>29</v>
       </c>
       <c r="C418" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="E418">
         <v>30</v>
@@ -10357,21 +10231,21 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="G418" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H418" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="419" spans="1:8">
       <c r="A419" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B419">
         <v>29</v>
       </c>
       <c r="C419" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="E419">
         <v>1</v>
@@ -10380,32 +10254,32 @@
         <v>0.0024</v>
       </c>
       <c r="G419" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H419" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B420">
         <v>29</v>
       </c>
       <c r="C420" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B421">
         <v>29</v>
       </c>
       <c r="C421" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="E421">
         <v>61</v>
@@ -10414,21 +10288,21 @@
         <v>0.1452</v>
       </c>
       <c r="G421" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H421" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="422" spans="1:8">
       <c r="A422" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B422">
         <v>29</v>
       </c>
       <c r="C422" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="E422">
         <v>1</v>
@@ -10437,43 +10311,43 @@
         <v>0.0024</v>
       </c>
       <c r="G422" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H422" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B423">
         <v>29.2</v>
       </c>
       <c r="C423" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B424">
         <v>30</v>
       </c>
       <c r="C424" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B425">
         <v>30</v>
       </c>
       <c r="C425" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E425">
         <v>1</v>
@@ -10482,21 +10356,21 @@
         <v>0.0024</v>
       </c>
       <c r="G425" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H425" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B426">
         <v>30</v>
       </c>
       <c r="C426" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E426">
         <v>37</v>
@@ -10505,21 +10379,21 @@
         <v>0.0881</v>
       </c>
       <c r="G426" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H426" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B427">
         <v>30</v>
       </c>
       <c r="C427" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="E427">
         <v>1</v>
@@ -10528,21 +10402,21 @@
         <v>0.0024</v>
       </c>
       <c r="G427" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H427" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B428">
         <v>30</v>
       </c>
       <c r="C428" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="E428">
         <v>1</v>
@@ -10551,21 +10425,21 @@
         <v>0.0024</v>
       </c>
       <c r="G428" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H428" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B429">
         <v>30</v>
       </c>
       <c r="C429" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="E429">
         <v>17</v>
@@ -10574,21 +10448,21 @@
         <v>0.0405</v>
       </c>
       <c r="G429" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H429" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B430">
         <v>30</v>
       </c>
       <c r="C430" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E430">
         <v>27</v>
@@ -10597,21 +10471,21 @@
         <v>0.0643</v>
       </c>
       <c r="G430" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H430" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B431">
         <v>30.2</v>
       </c>
       <c r="C431" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E431">
         <v>2</v>
@@ -10620,21 +10494,21 @@
         <v>0.0048</v>
       </c>
       <c r="G431" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H431" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B432">
         <v>30.2</v>
       </c>
       <c r="C432" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="E432">
         <v>18</v>
@@ -10643,21 +10517,21 @@
         <v>0.0429</v>
       </c>
       <c r="G432" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H432" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B433">
         <v>31</v>
       </c>
       <c r="C433" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="E433">
         <v>1</v>
@@ -10666,21 +10540,21 @@
         <v>0.0024</v>
       </c>
       <c r="G433" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H433" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B434">
         <v>31</v>
       </c>
       <c r="C434" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="E434">
         <v>8</v>
@@ -10689,21 +10563,21 @@
         <v>0.019</v>
       </c>
       <c r="G434" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H434" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B435">
         <v>31</v>
       </c>
       <c r="C435" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="E435">
         <v>1</v>
@@ -10712,21 +10586,21 @@
         <v>0.0024</v>
       </c>
       <c r="G435" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H435" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B436">
         <v>31</v>
       </c>
       <c r="C436" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="E436">
         <v>13</v>
@@ -10735,21 +10609,21 @@
         <v>0.031</v>
       </c>
       <c r="G436" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H436" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B437">
         <v>31</v>
       </c>
       <c r="C437" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="E437">
         <v>6</v>
@@ -10758,21 +10632,21 @@
         <v>0.0143</v>
       </c>
       <c r="G437" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H437" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B438">
         <v>31.2</v>
       </c>
       <c r="C438" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="E438">
         <v>2</v>
@@ -10781,21 +10655,21 @@
         <v>0.0048</v>
       </c>
       <c r="G438" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H438" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B439">
         <v>31.2</v>
       </c>
       <c r="C439" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="E439">
         <v>46</v>
@@ -10804,32 +10678,32 @@
         <v>0.1095</v>
       </c>
       <c r="G439" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H439" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B440">
         <v>32</v>
       </c>
       <c r="C440" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B441">
         <v>32</v>
       </c>
       <c r="C441" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="E441">
         <v>2</v>
@@ -10838,21 +10712,21 @@
         <v>0.0048</v>
       </c>
       <c r="G441" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H441" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B442">
         <v>32</v>
       </c>
       <c r="C442" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="E442">
         <v>1</v>
@@ -10861,21 +10735,21 @@
         <v>0.0024</v>
       </c>
       <c r="G442" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H442" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B443">
         <v>32</v>
       </c>
       <c r="C443" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E443">
         <v>6</v>
@@ -10884,21 +10758,21 @@
         <v>0.0143</v>
       </c>
       <c r="G443" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H443" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B444">
         <v>32</v>
       </c>
       <c r="C444" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="E444">
         <v>1</v>
@@ -10907,32 +10781,32 @@
         <v>0.0024</v>
       </c>
       <c r="G444" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="H444" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B445">
         <v>32.2</v>
       </c>
       <c r="C445" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B446">
         <v>32.2</v>
       </c>
       <c r="C446" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="E446">
         <v>37</v>
@@ -10941,21 +10815,21 @@
         <v>0.0881</v>
       </c>
       <c r="G446" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H446" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B447">
         <v>33.2</v>
       </c>
       <c r="C447" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="E447">
         <v>2</v>
@@ -10964,21 +10838,21 @@
         <v>0.0048</v>
       </c>
       <c r="G447" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H447" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B448">
         <v>33.2</v>
       </c>
       <c r="C448" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="E448">
         <v>17</v>
@@ -10987,21 +10861,21 @@
         <v>0.0405</v>
       </c>
       <c r="G448" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H448" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B449">
         <v>33.2</v>
       </c>
       <c r="C449" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="E449">
         <v>1</v>
@@ -11010,21 +10884,21 @@
         <v>0.0024</v>
       </c>
       <c r="G449" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H449" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B450">
         <v>34.2</v>
       </c>
       <c r="C450" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="E450">
         <v>4</v>
@@ -11033,21 +10907,21 @@
         <v>0.0095</v>
       </c>
       <c r="G450" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H450" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B451">
         <v>35</v>
       </c>
       <c r="C451" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="E451">
         <v>1</v>
@@ -11056,10 +10930,10 @@
         <v>0.0024</v>
       </c>
       <c r="G451" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="H451" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -11069,7 +10943,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -11083,13 +10957,13 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B455">
         <v>7</v>
       </c>
       <c r="C455" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="E455">
         <v>12</v>
@@ -11098,21 +10972,21 @@
         <v>0.0286</v>
       </c>
       <c r="G455" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H455" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="456" spans="1:8">
       <c r="A456" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B456">
         <v>8</v>
       </c>
       <c r="C456" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="E456">
         <v>8</v>
@@ -11121,21 +10995,21 @@
         <v>0.019</v>
       </c>
       <c r="G456" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H456" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B457">
         <v>9</v>
       </c>
       <c r="C457" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E457">
         <v>1</v>
@@ -11144,21 +11018,21 @@
         <v>0.0024</v>
       </c>
       <c r="G457" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H457" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="A458" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B458">
         <v>9</v>
       </c>
       <c r="C458" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="E458">
         <v>99</v>
@@ -11167,21 +11041,21 @@
         <v>0.2357</v>
       </c>
       <c r="G458" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H458" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="459" spans="1:8">
       <c r="A459" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B459">
         <v>10</v>
       </c>
       <c r="C459" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E459">
         <v>1</v>
@@ -11190,21 +11064,21 @@
         <v>0.0024</v>
       </c>
       <c r="G459" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H459" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B460">
         <v>10</v>
       </c>
       <c r="C460" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E460">
         <v>2</v>
@@ -11213,21 +11087,21 @@
         <v>0.0048</v>
       </c>
       <c r="G460" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H460" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B461">
         <v>10</v>
       </c>
       <c r="C461" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="E461">
         <v>63</v>
@@ -11236,21 +11110,21 @@
         <v>0.15</v>
       </c>
       <c r="G461" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H461" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="462" spans="1:8">
       <c r="A462" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B462">
         <v>11</v>
       </c>
       <c r="C462" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E462">
         <v>1</v>
@@ -11259,21 +11133,21 @@
         <v>0.0024</v>
       </c>
       <c r="G462" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H462" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B463">
         <v>11</v>
       </c>
       <c r="C463" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E463">
         <v>2</v>
@@ -11282,21 +11156,21 @@
         <v>0.0048</v>
       </c>
       <c r="G463" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H463" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="A464" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B464">
         <v>11</v>
       </c>
       <c r="C464" t="s">
-        <v>424</v>
+        <v>415</v>
       </c>
       <c r="E464">
         <v>52</v>
@@ -11305,21 +11179,21 @@
         <v>0.1238</v>
       </c>
       <c r="G464" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H464" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="465" spans="1:8">
       <c r="A465" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B465">
         <v>12</v>
       </c>
       <c r="C465" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E465">
         <v>4</v>
@@ -11328,21 +11202,21 @@
         <v>0.0095</v>
       </c>
       <c r="G465" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H465" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
     </row>
     <row r="466" spans="1:8">
       <c r="A466" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B466">
         <v>12</v>
       </c>
       <c r="C466" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="E466">
         <v>38</v>
@@ -11351,24 +11225,21 @@
         <v>0.0905</v>
       </c>
       <c r="G466" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H466" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B467">
         <v>12</v>
       </c>
       <c r="C467" t="s">
-        <v>425</v>
-      </c>
-      <c r="D467" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
       <c r="E467">
         <v>1</v>
@@ -11377,21 +11248,21 @@
         <v>0.0024</v>
       </c>
       <c r="G467" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H467" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="468" spans="1:8">
       <c r="A468" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B468">
         <v>13</v>
       </c>
       <c r="C468" t="s">
-        <v>428</v>
+        <v>418</v>
       </c>
       <c r="E468">
         <v>36</v>
@@ -11400,24 +11271,21 @@
         <v>0.0857</v>
       </c>
       <c r="G468" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H468" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="469" spans="1:8">
       <c r="A469" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B469">
         <v>13</v>
       </c>
       <c r="C469" t="s">
-        <v>428</v>
-      </c>
-      <c r="D469" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="E469">
         <v>1</v>
@@ -11426,21 +11294,21 @@
         <v>0.0024</v>
       </c>
       <c r="G469" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H469" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="A470" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B470">
         <v>14</v>
       </c>
       <c r="C470" t="s">
-        <v>429</v>
+        <v>419</v>
       </c>
       <c r="E470">
         <v>13</v>
@@ -11449,21 +11317,21 @@
         <v>0.031</v>
       </c>
       <c r="G470" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H470" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B471">
         <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>430</v>
+        <v>420</v>
       </c>
       <c r="E471">
         <v>12</v>
@@ -11472,21 +11340,21 @@
         <v>0.0286</v>
       </c>
       <c r="G471" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="H471" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
     </row>
     <row r="472" spans="1:8">
       <c r="A472" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="B472">
         <v>16</v>
       </c>
       <c r="C472" t="s">
-        <v>431</v>
+        <v>421</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -11496,7 +11364,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -11510,13 +11378,13 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B476">
         <v>10</v>
       </c>
       <c r="C476" t="s">
-        <v>433</v>
+        <v>423</v>
       </c>
       <c r="E476">
         <v>2</v>
@@ -11525,21 +11393,21 @@
         <v>0.0048</v>
       </c>
       <c r="G476" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H476" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="477" spans="1:8">
       <c r="A477" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B477">
         <v>11</v>
       </c>
       <c r="C477" t="s">
-        <v>436</v>
+        <v>426</v>
       </c>
       <c r="E477">
         <v>106</v>
@@ -11548,21 +11416,21 @@
         <v>0.2524</v>
       </c>
       <c r="G477" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H477" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B478">
         <v>12</v>
       </c>
       <c r="C478" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E478">
         <v>1</v>
@@ -11571,21 +11439,21 @@
         <v>0.0024</v>
       </c>
       <c r="G478" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H478" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B479">
         <v>12</v>
       </c>
       <c r="C479" t="s">
-        <v>437</v>
+        <v>427</v>
       </c>
       <c r="E479">
         <v>5</v>
@@ -11594,21 +11462,21 @@
         <v>0.0119</v>
       </c>
       <c r="G479" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H479" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="480" spans="1:8">
       <c r="A480" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B480">
         <v>13</v>
       </c>
       <c r="C480" t="s">
-        <v>438</v>
+        <v>428</v>
       </c>
       <c r="E480">
         <v>1</v>
@@ -11617,21 +11485,21 @@
         <v>0.0024</v>
       </c>
       <c r="G480" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H480" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="481" spans="1:8">
       <c r="A481" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B481">
         <v>14</v>
       </c>
       <c r="C481" t="s">
-        <v>439</v>
+        <v>429</v>
       </c>
       <c r="E481">
         <v>8</v>
@@ -11640,21 +11508,21 @@
         <v>0.019</v>
       </c>
       <c r="G481" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H481" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B482">
         <v>15</v>
       </c>
       <c r="C482" t="s">
-        <v>440</v>
+        <v>430</v>
       </c>
       <c r="E482">
         <v>135</v>
@@ -11663,21 +11531,21 @@
         <v>0.3214</v>
       </c>
       <c r="G482" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H482" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B483">
         <v>16</v>
       </c>
       <c r="C483" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="E483">
         <v>133</v>
@@ -11686,21 +11554,21 @@
         <v>0.3167</v>
       </c>
       <c r="G483" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H483" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B484">
         <v>17</v>
       </c>
       <c r="C484" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="E484">
         <v>24</v>
@@ -11709,21 +11577,21 @@
         <v>0.0571</v>
       </c>
       <c r="G484" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H484" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="A485" t="s">
-        <v>432</v>
+        <v>422</v>
       </c>
       <c r="B485">
         <v>18</v>
       </c>
       <c r="C485" t="s">
-        <v>443</v>
+        <v>433</v>
       </c>
       <c r="E485">
         <v>3</v>
@@ -11732,10 +11600,10 @@
         <v>0.0071</v>
       </c>
       <c r="G485" t="s">
-        <v>434</v>
+        <v>424</v>
       </c>
       <c r="H485" t="s">
-        <v>435</v>
+        <v>425</v>
       </c>
     </row>
     <row r="486" spans="1:8">

--- a/data/Table_S1.xlsx
+++ b/data/Table_S1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1562" uniqueCount="444">
   <si>
     <t>Locus</t>
   </si>
@@ -245,6 +245,9 @@
   </si>
   <si>
     <t>[TCTA]8 TCTG TCTA</t>
+  </si>
+  <si>
+    <t>rs74640515</t>
   </si>
   <si>
     <r>
@@ -571,6 +574,9 @@
     <t>TCAAAAT</t>
   </si>
   <si>
+    <t>rs72009062</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -610,6 +616,9 @@
     <t>[TATC]7</t>
   </si>
   <si>
+    <t>rs7789995</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -692,6 +701,9 @@
   </si>
   <si>
     <t>C [TATC]9</t>
+  </si>
+  <si>
+    <t>rs7789995, rs767974915, rs767974915, rs767974915</t>
   </si>
   <si>
     <r>
@@ -953,6 +965,9 @@
     <t>[GGAA]13</t>
   </si>
   <si>
+    <t>rs563636310</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1058,6 +1073,9 @@
   </si>
   <si>
     <t>[AGAT]12 [AGAC]6 AGAT</t>
+  </si>
+  <si>
+    <t>rs138635218</t>
   </si>
   <si>
     <r>
@@ -1351,6 +1369,9 @@
     <t>[TATC]8 AATC</t>
   </si>
   <si>
+    <t>rs9546005</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u/>
@@ -1527,6 +1548,9 @@
     <t>TCATTGAAAGACAAAACAGAGATGGATGATAGATAC</t>
   </si>
   <si>
+    <t>rs563997442</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1561,6 +1585,9 @@
   </si>
   <si>
     <t>[GATA]9</t>
+  </si>
+  <si>
+    <t>rs11642858</t>
   </si>
   <si>
     <r>
@@ -2031,6 +2058,9 @@
   </si>
   <si>
     <t>[AAAGA]12</t>
+  </si>
+  <si>
+    <t>rs186259515</t>
   </si>
   <si>
     <r>
@@ -3723,6 +3753,9 @@
       <c r="C72" t="s">
         <v>12</v>
       </c>
+      <c r="D72" t="s">
+        <v>77</v>
+      </c>
       <c r="E72">
         <v>22</v>
       </c>
@@ -3730,7 +3763,7 @@
         <v>0.0524</v>
       </c>
       <c r="G72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s">
         <v>75</v>
@@ -3767,7 +3800,7 @@
         <v>11</v>
       </c>
       <c r="C74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E74">
         <v>6</v>
@@ -3790,7 +3823,7 @@
         <v>11.3</v>
       </c>
       <c r="C75" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E75">
         <v>32</v>
@@ -3836,7 +3869,7 @@
         <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3847,7 +3880,7 @@
         <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3858,7 +3891,7 @@
         <v>12.3</v>
       </c>
       <c r="C79" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3892,7 +3925,7 @@
         <v>13</v>
       </c>
       <c r="C81" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E81">
         <v>11</v>
@@ -3915,7 +3948,7 @@
         <v>13.3</v>
       </c>
       <c r="C82" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3938,7 +3971,7 @@
         <v>14</v>
       </c>
       <c r="C83" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E83">
         <v>99</v>
@@ -3961,7 +3994,7 @@
         <v>14.1</v>
       </c>
       <c r="C84" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3972,7 +4005,7 @@
         <v>15</v>
       </c>
       <c r="C85" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E85">
         <v>20</v>
@@ -3995,7 +4028,7 @@
         <v>16</v>
       </c>
       <c r="C86" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E86">
         <v>3</v>
@@ -4017,7 +4050,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4031,13 +4064,13 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B90">
         <v>6</v>
       </c>
       <c r="C90" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E90">
         <v>2</v>
@@ -4046,18 +4079,18 @@
         <v>0.0048</v>
       </c>
       <c r="H90" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B91">
         <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E91">
         <v>237</v>
@@ -4066,18 +4099,18 @@
         <v>0.5643</v>
       </c>
       <c r="H91" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B92">
         <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E92">
         <v>33</v>
@@ -4086,18 +4119,18 @@
         <v>0.0786</v>
       </c>
       <c r="H92" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B93">
         <v>10</v>
       </c>
       <c r="C93" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E93">
         <v>33</v>
@@ -4106,18 +4139,18 @@
         <v>0.0786</v>
       </c>
       <c r="H93" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B94">
         <v>11</v>
       </c>
       <c r="C94" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E94">
         <v>103</v>
@@ -4126,18 +4159,18 @@
         <v>0.2452</v>
       </c>
       <c r="H94" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B95">
         <v>12</v>
       </c>
       <c r="C95" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E95">
         <v>7</v>
@@ -4146,18 +4179,18 @@
         <v>0.0167</v>
       </c>
       <c r="H95" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B96">
         <v>13</v>
       </c>
       <c r="C96" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -4166,7 +4199,7 @@
         <v>0.0024</v>
       </c>
       <c r="H96" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -4176,7 +4209,7 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -4190,13 +4223,13 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B100">
         <v>13</v>
       </c>
       <c r="C100" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -4205,32 +4238,32 @@
         <v>0.0048</v>
       </c>
       <c r="G100" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H100" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>14</v>
       </c>
       <c r="C101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B102">
         <v>14</v>
       </c>
       <c r="C102" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E102">
         <v>51</v>
@@ -4239,21 +4272,21 @@
         <v>0.1214</v>
       </c>
       <c r="G102" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H102" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B103">
         <v>15</v>
       </c>
       <c r="C103" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E103">
         <v>9</v>
@@ -4262,21 +4295,21 @@
         <v>0.0214</v>
       </c>
       <c r="G103" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H103" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B104">
         <v>15</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E104">
         <v>83</v>
@@ -4285,21 +4318,21 @@
         <v>0.1976</v>
       </c>
       <c r="G104" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H104" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B105">
         <v>15</v>
       </c>
       <c r="C105" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E105">
         <v>10</v>
@@ -4308,21 +4341,21 @@
         <v>0.0238</v>
       </c>
       <c r="G105" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H105" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B106">
         <v>16</v>
       </c>
       <c r="C106" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -4331,21 +4364,21 @@
         <v>0.0071</v>
       </c>
       <c r="G106" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H106" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B107">
         <v>16</v>
       </c>
       <c r="C107" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E107">
         <v>62</v>
@@ -4354,21 +4387,21 @@
         <v>0.1476</v>
       </c>
       <c r="G107" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H107" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B108">
         <v>16</v>
       </c>
       <c r="C108" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="E108">
         <v>35</v>
@@ -4377,21 +4410,21 @@
         <v>0.0833</v>
       </c>
       <c r="G108" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H108" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B109">
         <v>17</v>
       </c>
       <c r="C109" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -4400,21 +4433,21 @@
         <v>0.0048</v>
       </c>
       <c r="G109" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H109" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B110">
         <v>17</v>
       </c>
       <c r="C110" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E110">
         <v>41</v>
@@ -4423,21 +4456,21 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="G110" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H110" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B111">
         <v>17</v>
       </c>
       <c r="C111" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E111">
         <v>38</v>
@@ -4446,21 +4479,21 @@
         <v>0.0905</v>
       </c>
       <c r="G111" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H111" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B112">
         <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E112">
         <v>1</v>
@@ -4469,21 +4502,21 @@
         <v>0.0024</v>
       </c>
       <c r="G112" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H112" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B113">
         <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E113">
         <v>4</v>
@@ -4492,21 +4525,21 @@
         <v>0.0095</v>
       </c>
       <c r="G113" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H113" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B114">
         <v>18</v>
       </c>
       <c r="C114" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E114">
         <v>2</v>
@@ -4515,21 +4548,21 @@
         <v>0.0048</v>
       </c>
       <c r="G114" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H114" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B115">
         <v>18</v>
       </c>
       <c r="C115" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E115">
         <v>68</v>
@@ -4538,21 +4571,21 @@
         <v>0.1619</v>
       </c>
       <c r="G115" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H115" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B116">
         <v>18</v>
       </c>
       <c r="C116" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E116">
         <v>2</v>
@@ -4561,21 +4594,21 @@
         <v>0.0048</v>
       </c>
       <c r="G116" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H116" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B117">
         <v>19</v>
       </c>
       <c r="C117" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E117">
         <v>4</v>
@@ -4584,21 +4617,21 @@
         <v>0.0095</v>
       </c>
       <c r="G117" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H117" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B118">
         <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E118">
         <v>1</v>
@@ -4607,10 +4640,10 @@
         <v>0.0024</v>
       </c>
       <c r="G118" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H118" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4620,7 +4653,7 @@
     </row>
     <row r="121" spans="1:8">
       <c r="A121" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4634,13 +4667,13 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B122">
         <v>16</v>
       </c>
       <c r="C122" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E122">
         <v>1</v>
@@ -4649,21 +4682,21 @@
         <v>0.0024</v>
       </c>
       <c r="G122" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H122" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B123">
         <v>18</v>
       </c>
       <c r="C123" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E123">
         <v>3</v>
@@ -4672,32 +4705,32 @@
         <v>0.0071</v>
       </c>
       <c r="G123" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H123" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B124">
         <v>18.2</v>
       </c>
       <c r="C124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B125">
         <v>18.3</v>
       </c>
       <c r="C125" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E125">
         <v>1</v>
@@ -4706,21 +4739,21 @@
         <v>0.0024</v>
       </c>
       <c r="G125" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H125" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B126">
         <v>19</v>
       </c>
       <c r="C126" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E126">
         <v>31</v>
@@ -4729,32 +4762,32 @@
         <v>0.0738</v>
       </c>
       <c r="G126" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H126" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B127">
         <v>19.2</v>
       </c>
       <c r="C127" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B128">
         <v>20</v>
       </c>
       <c r="C128" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E128">
         <v>63</v>
@@ -4763,21 +4796,21 @@
         <v>0.15</v>
       </c>
       <c r="G128" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H128" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B129">
         <v>21</v>
       </c>
       <c r="C129" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E129">
         <v>89</v>
@@ -4786,21 +4819,21 @@
         <v>0.2119</v>
       </c>
       <c r="G129" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H129" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B130">
         <v>21.2</v>
       </c>
       <c r="C130" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E130">
         <v>1</v>
@@ -4809,21 +4842,21 @@
         <v>0.0024</v>
       </c>
       <c r="G130" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H130" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B131">
         <v>22</v>
       </c>
       <c r="C131" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E131">
         <v>75</v>
@@ -4832,21 +4865,21 @@
         <v>0.1786</v>
       </c>
       <c r="G131" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H131" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B132">
         <v>22.2</v>
       </c>
       <c r="C132" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E132">
         <v>6</v>
@@ -4855,21 +4888,21 @@
         <v>0.0143</v>
       </c>
       <c r="G132" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H132" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B133">
         <v>23</v>
       </c>
       <c r="C133" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E133">
         <v>49</v>
@@ -4878,32 +4911,32 @@
         <v>0.1167</v>
       </c>
       <c r="G133" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H133" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B134">
         <v>23.1</v>
       </c>
       <c r="C134" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B135">
         <v>23.2</v>
       </c>
       <c r="C135" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -4912,21 +4945,21 @@
         <v>0.0048</v>
       </c>
       <c r="G135" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H135" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B136">
         <v>24</v>
       </c>
       <c r="C136" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E136">
         <v>3</v>
@@ -4935,21 +4968,21 @@
         <v>0.0071</v>
       </c>
       <c r="G136" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H136" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B137">
         <v>24</v>
       </c>
       <c r="C137" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E137">
         <v>49</v>
@@ -4958,43 +4991,43 @@
         <v>0.1167</v>
       </c>
       <c r="G137" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H137" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B138">
         <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B139">
         <v>24.2</v>
       </c>
       <c r="C139" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B140">
         <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E140">
         <v>1</v>
@@ -5003,21 +5036,21 @@
         <v>0.0024</v>
       </c>
       <c r="G140" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H140" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B141">
         <v>25</v>
       </c>
       <c r="C141" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E141">
         <v>24</v>
@@ -5026,32 +5059,32 @@
         <v>0.0571</v>
       </c>
       <c r="G141" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H141" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B142">
         <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="143" spans="1:8">
       <c r="A143" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B143">
         <v>26</v>
       </c>
       <c r="C143" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E143">
         <v>12</v>
@@ -5060,21 +5093,21 @@
         <v>0.0286</v>
       </c>
       <c r="G143" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H143" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="144" spans="1:8">
       <c r="A144" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B144">
         <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E144">
         <v>2</v>
@@ -5083,10 +5116,10 @@
         <v>0.0048</v>
       </c>
       <c r="G144" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H144" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -5096,7 +5129,7 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -5110,13 +5143,13 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B148">
         <v>7</v>
       </c>
       <c r="C148" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E148">
         <v>1</v>
@@ -5125,21 +5158,21 @@
         <v>0.0024</v>
       </c>
       <c r="G148" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H148" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="149" spans="1:8">
       <c r="A149" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B149">
         <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="E149">
         <v>1</v>
@@ -5148,21 +5181,21 @@
         <v>0.0024</v>
       </c>
       <c r="G149" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H149" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="150" spans="1:8">
       <c r="A150" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B150">
         <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E150">
         <v>15</v>
@@ -5171,21 +5204,21 @@
         <v>0.0357</v>
       </c>
       <c r="G150" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H150" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:8">
       <c r="A151" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B151">
         <v>10</v>
       </c>
       <c r="C151" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E151">
         <v>119</v>
@@ -5194,21 +5227,21 @@
         <v>0.2833</v>
       </c>
       <c r="G151" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H151" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B152">
         <v>11</v>
       </c>
       <c r="C152" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E152">
         <v>106</v>
@@ -5217,21 +5250,21 @@
         <v>0.2524</v>
       </c>
       <c r="G152" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H152" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="153" spans="1:8">
       <c r="A153" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B153">
         <v>12</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E153">
         <v>134</v>
@@ -5240,21 +5273,21 @@
         <v>0.319</v>
       </c>
       <c r="G153" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H153" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="154" spans="1:8">
       <c r="A154" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B154">
         <v>13</v>
       </c>
       <c r="C154" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E154">
         <v>37</v>
@@ -5263,21 +5296,21 @@
         <v>0.0881</v>
       </c>
       <c r="G154" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H154" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B155">
         <v>14</v>
       </c>
       <c r="C155" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -5286,21 +5319,21 @@
         <v>0.0048</v>
       </c>
       <c r="G155" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H155" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="A156" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B156">
         <v>15</v>
       </c>
       <c r="C156" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E156">
         <v>1</v>
@@ -5309,10 +5342,10 @@
         <v>0.0024</v>
       </c>
       <c r="G156" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H156" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5322,7 +5355,7 @@
     </row>
     <row r="159" spans="1:8">
       <c r="A159" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5336,13 +5369,13 @@
     </row>
     <row r="160" spans="1:8">
       <c r="A160" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B160">
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E160">
         <v>1</v>
@@ -5351,32 +5384,35 @@
         <v>0.0024</v>
       </c>
       <c r="G160" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H160" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:8">
       <c r="A161" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B161">
         <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="162" spans="1:8">
       <c r="A162" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B162">
         <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>150</v>
+        <v>151</v>
+      </c>
+      <c r="D162" t="s">
+        <v>162</v>
       </c>
       <c r="E162">
         <v>1</v>
@@ -5385,32 +5421,35 @@
         <v>0.0024</v>
       </c>
       <c r="G162" t="s">
+        <v>163</v>
+      </c>
+      <c r="H162" t="s">
         <v>161</v>
-      </c>
-      <c r="H162" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:8">
       <c r="A163" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B163">
         <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="164" spans="1:8">
       <c r="A164" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B164">
         <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>151</v>
+        <v>152</v>
+      </c>
+      <c r="D164" t="s">
+        <v>162</v>
       </c>
       <c r="E164">
         <v>28</v>
@@ -5419,21 +5458,21 @@
         <v>0.0667</v>
       </c>
       <c r="G164" t="s">
+        <v>163</v>
+      </c>
+      <c r="H164" t="s">
         <v>161</v>
-      </c>
-      <c r="H164" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="165" spans="1:8">
       <c r="A165" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B165">
         <v>10</v>
       </c>
       <c r="C165" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E165">
         <v>23</v>
@@ -5442,21 +5481,24 @@
         <v>0.0548</v>
       </c>
       <c r="G165" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H165" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:8">
       <c r="A166" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B166">
         <v>10</v>
       </c>
       <c r="C166" t="s">
-        <v>152</v>
+        <v>153</v>
+      </c>
+      <c r="D166" t="s">
+        <v>162</v>
       </c>
       <c r="E166">
         <v>11</v>
@@ -5465,21 +5507,21 @@
         <v>0.0262</v>
       </c>
       <c r="G166" t="s">
+        <v>163</v>
+      </c>
+      <c r="H166" t="s">
         <v>161</v>
-      </c>
-      <c r="H166" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="167" spans="1:8">
       <c r="A167" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B167">
         <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="E167">
         <v>110</v>
@@ -5488,21 +5530,24 @@
         <v>0.2619</v>
       </c>
       <c r="G167" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H167" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:8">
       <c r="A168" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B168">
         <v>11</v>
       </c>
       <c r="C168" t="s">
-        <v>153</v>
+        <v>154</v>
+      </c>
+      <c r="D168" t="s">
+        <v>162</v>
       </c>
       <c r="E168">
         <v>11</v>
@@ -5511,21 +5556,21 @@
         <v>0.0262</v>
       </c>
       <c r="G168" t="s">
+        <v>163</v>
+      </c>
+      <c r="H168" t="s">
         <v>161</v>
-      </c>
-      <c r="H168" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="169" spans="1:8">
       <c r="A169" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B169">
         <v>12</v>
       </c>
       <c r="C169" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E169">
         <v>104</v>
@@ -5534,21 +5579,24 @@
         <v>0.2476</v>
       </c>
       <c r="G169" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H169" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:8">
       <c r="A170" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B170">
         <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>154</v>
+        <v>155</v>
+      </c>
+      <c r="D170" t="s">
+        <v>162</v>
       </c>
       <c r="E170">
         <v>40</v>
@@ -5557,21 +5605,21 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="G170" t="s">
+        <v>163</v>
+      </c>
+      <c r="H170" t="s">
         <v>161</v>
-      </c>
-      <c r="H170" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="171" spans="1:8">
       <c r="A171" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B171">
         <v>13</v>
       </c>
       <c r="C171" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E171">
         <v>39</v>
@@ -5580,21 +5628,24 @@
         <v>0.0929</v>
       </c>
       <c r="G171" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H171" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:8">
       <c r="A172" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B172">
         <v>13</v>
       </c>
       <c r="C172" t="s">
-        <v>155</v>
+        <v>156</v>
+      </c>
+      <c r="D172" t="s">
+        <v>162</v>
       </c>
       <c r="E172">
         <v>32</v>
@@ -5603,21 +5654,21 @@
         <v>0.0762</v>
       </c>
       <c r="G172" t="s">
+        <v>163</v>
+      </c>
+      <c r="H172" t="s">
         <v>161</v>
-      </c>
-      <c r="H172" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="173" spans="1:8">
       <c r="A173" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B173">
         <v>14</v>
       </c>
       <c r="C173" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E173">
         <v>6</v>
@@ -5626,21 +5677,24 @@
         <v>0.0143</v>
       </c>
       <c r="G173" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H173" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:8">
       <c r="A174" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B174">
         <v>14</v>
       </c>
       <c r="C174" t="s">
-        <v>156</v>
+        <v>157</v>
+      </c>
+      <c r="D174" t="s">
+        <v>162</v>
       </c>
       <c r="E174">
         <v>2</v>
@@ -5649,21 +5703,21 @@
         <v>0.0048</v>
       </c>
       <c r="G174" t="s">
+        <v>163</v>
+      </c>
+      <c r="H174" t="s">
         <v>161</v>
-      </c>
-      <c r="H174" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:8">
       <c r="A175" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B175">
         <v>15</v>
       </c>
       <c r="C175" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5673,7 +5727,7 @@
     </row>
     <row r="178" spans="1:8">
       <c r="A178" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -5687,13 +5741,16 @@
     </row>
     <row r="179" spans="1:8">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B179">
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>163</v>
+        <v>165</v>
+      </c>
+      <c r="D179" t="s">
+        <v>166</v>
       </c>
       <c r="E179">
         <v>6</v>
@@ -5702,20 +5759,23 @@
         <v>0.0143</v>
       </c>
       <c r="G179" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H179" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="180" spans="1:8">
       <c r="A180" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B180">
         <v>8</v>
       </c>
       <c r="C180" t="s">
+        <v>169</v>
+      </c>
+      <c r="D180" t="s">
         <v>166</v>
       </c>
       <c r="E180">
@@ -5725,24 +5785,24 @@
         <v>0.09760000000000001</v>
       </c>
       <c r="G180" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H180" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="181" spans="1:8">
       <c r="A181" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B181">
         <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D181" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E181">
         <v>30</v>
@@ -5751,21 +5811,24 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="G181" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H181" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="182" spans="1:8">
       <c r="A182" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B182">
         <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>169</v>
+        <v>172</v>
+      </c>
+      <c r="D182" t="s">
+        <v>166</v>
       </c>
       <c r="E182">
         <v>3</v>
@@ -5774,21 +5837,24 @@
         <v>0.0071</v>
       </c>
       <c r="G182" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H182" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="183" spans="1:8">
       <c r="A183" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B183">
         <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>170</v>
+        <v>173</v>
+      </c>
+      <c r="D183" t="s">
+        <v>166</v>
       </c>
       <c r="E183">
         <v>64</v>
@@ -5797,24 +5863,24 @@
         <v>0.1524</v>
       </c>
       <c r="G183" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H183" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="184" spans="1:8">
       <c r="A184" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B184">
         <v>9</v>
       </c>
       <c r="C184" t="s">
+        <v>173</v>
+      </c>
+      <c r="D184" t="s">
         <v>170</v>
-      </c>
-      <c r="D184" t="s">
-        <v>167</v>
       </c>
       <c r="E184">
         <v>5</v>
@@ -5823,21 +5889,24 @@
         <v>0.0119</v>
       </c>
       <c r="G184" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H184" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B185">
         <v>9.1</v>
       </c>
       <c r="C185" t="s">
-        <v>171</v>
+        <v>174</v>
+      </c>
+      <c r="D185" t="s">
+        <v>175</v>
       </c>
       <c r="E185">
         <v>1</v>
@@ -5846,21 +5915,21 @@
         <v>0.0024</v>
       </c>
       <c r="G185" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="H185" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="186" spans="1:8">
       <c r="A186" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B186">
         <v>10</v>
       </c>
       <c r="C186" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E186">
         <v>14</v>
@@ -5869,21 +5938,24 @@
         <v>0.0333</v>
       </c>
       <c r="G186" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H186" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="187" spans="1:8">
       <c r="A187" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B187">
         <v>10</v>
       </c>
       <c r="C187" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="D187" t="s">
+        <v>166</v>
       </c>
       <c r="E187">
         <v>75</v>
@@ -5892,21 +5964,21 @@
         <v>0.1786</v>
       </c>
       <c r="G187" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H187" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="188" spans="1:8">
       <c r="A188" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B188">
         <v>11</v>
       </c>
       <c r="C188" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E188">
         <v>10</v>
@@ -5915,21 +5987,24 @@
         <v>0.0238</v>
       </c>
       <c r="G188" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H188" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="189" spans="1:8">
       <c r="A189" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B189">
         <v>11</v>
       </c>
       <c r="C189" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="D189" t="s">
+        <v>166</v>
       </c>
       <c r="E189">
         <v>90</v>
@@ -5938,21 +6013,21 @@
         <v>0.2143</v>
       </c>
       <c r="G189" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H189" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="190" spans="1:8">
       <c r="A190" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B190">
         <v>12</v>
       </c>
       <c r="C190" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E190">
         <v>9</v>
@@ -5961,21 +6036,24 @@
         <v>0.0214</v>
       </c>
       <c r="G190" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H190" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="191" spans="1:8">
       <c r="A191" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B191">
         <v>12</v>
       </c>
       <c r="C191" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D191" t="s">
+        <v>166</v>
       </c>
       <c r="E191">
         <v>49</v>
@@ -5984,21 +6062,21 @@
         <v>0.1167</v>
       </c>
       <c r="G191" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H191" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="192" spans="1:8">
       <c r="A192" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B192">
         <v>13</v>
       </c>
       <c r="C192" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E192">
         <v>3</v>
@@ -6007,21 +6085,24 @@
         <v>0.0071</v>
       </c>
       <c r="G192" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H192" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="193" spans="1:8">
       <c r="A193" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B193">
         <v>13</v>
       </c>
       <c r="C193" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="D193" t="s">
+        <v>166</v>
       </c>
       <c r="E193">
         <v>10</v>
@@ -6030,21 +6111,21 @@
         <v>0.0238</v>
       </c>
       <c r="G193" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H193" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="194" spans="1:8">
       <c r="A194" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B194">
         <v>14</v>
       </c>
       <c r="C194" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E194">
         <v>3</v>
@@ -6053,21 +6134,24 @@
         <v>0.0071</v>
       </c>
       <c r="G194" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H194" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="195" spans="1:8">
       <c r="A195" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B195">
         <v>14</v>
       </c>
       <c r="C195" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="D195" t="s">
+        <v>166</v>
       </c>
       <c r="E195">
         <v>3</v>
@@ -6076,10 +6160,10 @@
         <v>0.0071</v>
       </c>
       <c r="G195" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H195" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6089,7 +6173,7 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -6103,13 +6187,13 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B199">
         <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="E199">
         <v>4</v>
@@ -6118,18 +6202,18 @@
         <v>0.0095</v>
       </c>
       <c r="H199" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B200">
         <v>9</v>
       </c>
       <c r="C200" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="E200">
         <v>5</v>
@@ -6138,12 +6222,12 @@
         <v>0.0119</v>
       </c>
       <c r="H200" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="201" spans="1:8">
       <c r="A201" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B201">
         <v>10</v>
@@ -6158,12 +6242,12 @@
         <v>0.0548</v>
       </c>
       <c r="H201" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B202">
         <v>11</v>
@@ -6178,18 +6262,18 @@
         <v>0.0571</v>
       </c>
       <c r="H202" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="203" spans="1:8">
       <c r="A203" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B203">
         <v>11</v>
       </c>
       <c r="C203" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -6198,12 +6282,12 @@
         <v>0.0024</v>
       </c>
       <c r="H203" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="204" spans="1:8">
       <c r="A204" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B204">
         <v>12</v>
@@ -6218,18 +6302,18 @@
         <v>0.15</v>
       </c>
       <c r="H204" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="205" spans="1:8">
       <c r="A205" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B205">
         <v>12</v>
       </c>
       <c r="C205" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -6238,18 +6322,18 @@
         <v>0.0024</v>
       </c>
       <c r="H205" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="206" spans="1:8">
       <c r="A206" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B206">
         <v>12</v>
       </c>
       <c r="C206" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="E206">
         <v>6</v>
@@ -6258,12 +6342,12 @@
         <v>0.0143</v>
       </c>
       <c r="H206" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="207" spans="1:8">
       <c r="A207" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B207">
         <v>13</v>
@@ -6278,18 +6362,18 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="H207" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="208" spans="1:8">
       <c r="A208" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B208">
         <v>13</v>
       </c>
       <c r="C208" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="E208">
         <v>1</v>
@@ -6298,18 +6382,18 @@
         <v>0.0024</v>
       </c>
       <c r="H208" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="209" spans="1:8">
       <c r="A209" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B209">
         <v>13</v>
       </c>
       <c r="C209" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="E209">
         <v>98</v>
@@ -6318,12 +6402,12 @@
         <v>0.2333</v>
       </c>
       <c r="H209" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="210" spans="1:8">
       <c r="A210" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B210">
         <v>14</v>
@@ -6338,18 +6422,18 @@
         <v>0.0333</v>
       </c>
       <c r="H210" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="211" spans="1:8">
       <c r="A211" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B211">
         <v>14</v>
       </c>
       <c r="C211" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="E211">
         <v>27</v>
@@ -6358,18 +6442,18 @@
         <v>0.0643</v>
       </c>
       <c r="H211" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="212" spans="1:8">
       <c r="A212" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B212">
         <v>14</v>
       </c>
       <c r="C212" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E212">
         <v>58</v>
@@ -6378,29 +6462,29 @@
         <v>0.1381</v>
       </c>
       <c r="H212" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="213" spans="1:8">
       <c r="A213" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B213">
         <v>14</v>
       </c>
       <c r="C213" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="214" spans="1:8">
       <c r="A214" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B214">
         <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="E214">
         <v>34</v>
@@ -6409,18 +6493,18 @@
         <v>0.081</v>
       </c>
       <c r="H214" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="215" spans="1:8">
       <c r="A215" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B215">
         <v>15</v>
       </c>
       <c r="C215" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E215">
         <v>18</v>
@@ -6429,18 +6513,18 @@
         <v>0.0429</v>
       </c>
       <c r="H215" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="216" spans="1:8">
       <c r="A216" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B216">
         <v>16</v>
       </c>
       <c r="C216" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E216">
         <v>8</v>
@@ -6449,18 +6533,18 @@
         <v>0.019</v>
       </c>
       <c r="H216" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="217" spans="1:8">
       <c r="A217" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B217">
         <v>16</v>
       </c>
       <c r="C217" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -6469,18 +6553,18 @@
         <v>0.0024</v>
       </c>
       <c r="H217" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="218" spans="1:8">
       <c r="A218" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B218">
         <v>17</v>
       </c>
       <c r="C218" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="E218">
         <v>2</v>
@@ -6489,18 +6573,18 @@
         <v>0.0048</v>
       </c>
       <c r="H218" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="219" spans="1:8">
       <c r="A219" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B219">
         <v>18</v>
       </c>
       <c r="C219" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6510,7 +6594,7 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -6524,13 +6608,13 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B223">
         <v>8</v>
       </c>
       <c r="C223" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -6539,21 +6623,21 @@
         <v>0.0024</v>
       </c>
       <c r="G223" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H223" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="224" spans="1:8">
       <c r="A224" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B224">
         <v>11</v>
       </c>
       <c r="C224" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E224">
         <v>2</v>
@@ -6562,21 +6646,21 @@
         <v>0.0048</v>
       </c>
       <c r="G224" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H224" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="225" spans="1:8">
       <c r="A225" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B225">
         <v>12</v>
       </c>
       <c r="C225" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E225">
         <v>14</v>
@@ -6585,21 +6669,24 @@
         <v>0.0333</v>
       </c>
       <c r="G225" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H225" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="226" spans="1:8">
       <c r="A226" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B226">
         <v>13</v>
       </c>
       <c r="C226" t="s">
-        <v>200</v>
+        <v>204</v>
+      </c>
+      <c r="D226" t="s">
+        <v>205</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -6608,21 +6695,21 @@
         <v>0.0024</v>
       </c>
       <c r="G226" t="s">
+        <v>206</v>
+      </c>
+      <c r="H226" t="s">
         <v>201</v>
-      </c>
-      <c r="H226" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="227" spans="1:8">
       <c r="A227" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B227">
         <v>13</v>
       </c>
       <c r="C227" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E227">
         <v>84</v>
@@ -6631,21 +6718,21 @@
         <v>0.2</v>
       </c>
       <c r="G227" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H227" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B228">
         <v>14</v>
       </c>
       <c r="C228" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="E228">
         <v>123</v>
@@ -6654,21 +6741,21 @@
         <v>0.2929</v>
       </c>
       <c r="G228" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H228" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="229" spans="1:8">
       <c r="A229" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B229">
         <v>15</v>
       </c>
       <c r="C229" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="E229">
         <v>120</v>
@@ -6677,21 +6764,21 @@
         <v>0.2857</v>
       </c>
       <c r="G229" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H229" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="230" spans="1:8">
       <c r="A230" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B230">
         <v>16</v>
       </c>
       <c r="C230" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="E230">
         <v>50</v>
@@ -6700,21 +6787,21 @@
         <v>0.119</v>
       </c>
       <c r="G230" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H230" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="231" spans="1:8">
       <c r="A231" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B231">
         <v>16.3</v>
       </c>
       <c r="C231" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -6723,21 +6810,21 @@
         <v>0.0024</v>
       </c>
       <c r="G231" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H231" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="232" spans="1:8">
       <c r="A232" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B232">
         <v>17</v>
       </c>
       <c r="C232" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="E232">
         <v>18</v>
@@ -6746,21 +6833,21 @@
         <v>0.0429</v>
       </c>
       <c r="G232" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="H232" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="233" spans="1:8">
       <c r="A233" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B233">
         <v>18</v>
       </c>
       <c r="C233" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6770,7 +6857,7 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -6778,13 +6865,13 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B237">
         <v>6</v>
       </c>
       <c r="C237" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E237">
         <v>99</v>
@@ -6793,21 +6880,21 @@
         <v>0.2357</v>
       </c>
       <c r="G237" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H237" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="238" spans="1:8">
       <c r="A238" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B238">
         <v>7</v>
       </c>
       <c r="C238" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="E238">
         <v>76</v>
@@ -6816,21 +6903,21 @@
         <v>0.181</v>
       </c>
       <c r="G238" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H238" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="239" spans="1:8">
       <c r="A239" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B239">
         <v>8</v>
       </c>
       <c r="C239" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E239">
         <v>50</v>
@@ -6839,21 +6926,21 @@
         <v>0.119</v>
       </c>
       <c r="G239" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H239" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="240" spans="1:8">
       <c r="A240" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B240">
         <v>9</v>
       </c>
       <c r="C240" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E240">
         <v>74</v>
@@ -6862,21 +6949,21 @@
         <v>0.1762</v>
       </c>
       <c r="G240" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H240" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B241">
         <v>9.300000000000001</v>
       </c>
       <c r="C241" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="E241">
         <v>119</v>
@@ -6885,21 +6972,21 @@
         <v>0.2833</v>
       </c>
       <c r="G241" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H241" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B242">
         <v>10</v>
       </c>
       <c r="C242" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E242">
         <v>2</v>
@@ -6908,10 +6995,10 @@
         <v>0.0048</v>
       </c>
       <c r="G242" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="H242" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6921,7 +7008,7 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -6935,13 +7022,13 @@
     </row>
     <row r="246" spans="1:8">
       <c r="A246" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B246">
         <v>15</v>
       </c>
       <c r="C246" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="E246">
         <v>9</v>
@@ -6950,21 +7037,21 @@
         <v>0.0214</v>
       </c>
       <c r="G246" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H246" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="247" spans="1:8">
       <c r="A247" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B247">
         <v>16</v>
       </c>
       <c r="C247" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="E247">
         <v>10</v>
@@ -6973,32 +7060,32 @@
         <v>0.0238</v>
       </c>
       <c r="G247" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H247" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B248">
         <v>17</v>
       </c>
       <c r="C248" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="249" spans="1:8">
       <c r="A249" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B249">
         <v>17</v>
       </c>
       <c r="C249" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="E249">
         <v>44</v>
@@ -7007,21 +7094,21 @@
         <v>0.1048</v>
       </c>
       <c r="G249" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H249" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B250">
         <v>17</v>
       </c>
       <c r="C250" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="E250">
         <v>6</v>
@@ -7030,21 +7117,21 @@
         <v>0.0143</v>
       </c>
       <c r="G250" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H250" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B251">
         <v>17.3</v>
       </c>
       <c r="C251" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="E251">
         <v>10</v>
@@ -7053,21 +7140,21 @@
         <v>0.0238</v>
       </c>
       <c r="G251" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H251" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B252">
         <v>18</v>
       </c>
       <c r="C252" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="E252">
         <v>4</v>
@@ -7076,21 +7163,21 @@
         <v>0.0095</v>
       </c>
       <c r="G252" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H252" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B253">
         <v>18</v>
       </c>
       <c r="C253" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="E253">
         <v>102</v>
@@ -7099,21 +7186,21 @@
         <v>0.2429</v>
       </c>
       <c r="G253" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H253" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B254">
         <v>18</v>
       </c>
       <c r="C254" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="E254">
         <v>2</v>
@@ -7122,21 +7209,21 @@
         <v>0.0048</v>
       </c>
       <c r="G254" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H254" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B255">
         <v>18.3</v>
       </c>
       <c r="C255" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="E255">
         <v>7</v>
@@ -7145,32 +7232,32 @@
         <v>0.0167</v>
       </c>
       <c r="G255" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H255" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B256">
         <v>19</v>
       </c>
       <c r="C256" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B257">
         <v>19</v>
       </c>
       <c r="C257" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="E257">
         <v>11</v>
@@ -7179,21 +7266,21 @@
         <v>0.0262</v>
       </c>
       <c r="G257" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H257" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B258">
         <v>19</v>
       </c>
       <c r="C258" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="E258">
         <v>1</v>
@@ -7202,21 +7289,21 @@
         <v>0.0024</v>
       </c>
       <c r="G258" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H258" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="259" spans="1:8">
       <c r="A259" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B259">
         <v>19</v>
       </c>
       <c r="C259" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E259">
         <v>42</v>
@@ -7225,21 +7312,24 @@
         <v>0.1</v>
       </c>
       <c r="G259" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H259" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="260" spans="1:8">
       <c r="A260" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B260">
         <v>19</v>
       </c>
       <c r="C260" t="s">
-        <v>229</v>
+        <v>234</v>
+      </c>
+      <c r="D260" t="s">
+        <v>235</v>
       </c>
       <c r="E260">
         <v>1</v>
@@ -7248,21 +7338,21 @@
         <v>0.0024</v>
       </c>
       <c r="G260" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H260" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
     </row>
     <row r="261" spans="1:8">
       <c r="A261" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B261">
         <v>19</v>
       </c>
       <c r="C261" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="E261">
         <v>2</v>
@@ -7271,21 +7361,21 @@
         <v>0.0048</v>
       </c>
       <c r="G261" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H261" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="262" spans="1:8">
       <c r="A262" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B262">
         <v>19.1</v>
       </c>
       <c r="C262" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -7294,21 +7384,21 @@
         <v>0.0024</v>
       </c>
       <c r="G262" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H262" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="263" spans="1:8">
       <c r="A263" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B263">
         <v>19.3</v>
       </c>
       <c r="C263" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="E263">
         <v>1</v>
@@ -7317,43 +7407,43 @@
         <v>0.0024</v>
       </c>
       <c r="G263" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H263" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="264" spans="1:8">
       <c r="A264" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B264">
         <v>19.3</v>
       </c>
       <c r="C264" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
     </row>
     <row r="265" spans="1:8">
       <c r="A265" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B265">
         <v>20</v>
       </c>
       <c r="C265" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="266" spans="1:8">
       <c r="A266" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B266">
         <v>20</v>
       </c>
       <c r="C266" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="E266">
         <v>11</v>
@@ -7362,21 +7452,21 @@
         <v>0.0262</v>
       </c>
       <c r="G266" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H266" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="267" spans="1:8">
       <c r="A267" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B267">
         <v>20</v>
       </c>
       <c r="C267" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="E267">
         <v>1</v>
@@ -7385,21 +7475,21 @@
         <v>0.0024</v>
       </c>
       <c r="G267" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H267" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="268" spans="1:8">
       <c r="A268" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B268">
         <v>20</v>
       </c>
       <c r="C268" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -7408,21 +7498,21 @@
         <v>0.0048</v>
       </c>
       <c r="G268" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H268" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="269" spans="1:8">
       <c r="A269" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B269">
         <v>20</v>
       </c>
       <c r="C269" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="E269">
         <v>14</v>
@@ -7431,21 +7521,21 @@
         <v>0.0333</v>
       </c>
       <c r="G269" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H269" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="270" spans="1:8">
       <c r="A270" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B270">
         <v>20</v>
       </c>
       <c r="C270" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="E270">
         <v>2</v>
@@ -7454,21 +7544,21 @@
         <v>0.0048</v>
       </c>
       <c r="G270" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H270" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="271" spans="1:8">
       <c r="A271" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B271">
         <v>20</v>
       </c>
       <c r="C271" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="E271">
         <v>18</v>
@@ -7477,43 +7567,43 @@
         <v>0.0429</v>
       </c>
       <c r="G271" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H271" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="272" spans="1:8">
       <c r="A272" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B272">
         <v>20</v>
       </c>
       <c r="C272" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
     </row>
     <row r="273" spans="1:8">
       <c r="A273" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B273">
         <v>20</v>
       </c>
       <c r="C273" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="274" spans="1:8">
       <c r="A274" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B274">
         <v>20</v>
       </c>
       <c r="C274" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="E274">
         <v>1</v>
@@ -7522,21 +7612,21 @@
         <v>0.0024</v>
       </c>
       <c r="G274" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H274" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="275" spans="1:8">
       <c r="A275" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B275">
         <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="E275">
         <v>3</v>
@@ -7545,21 +7635,21 @@
         <v>0.0071</v>
       </c>
       <c r="G275" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H275" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B276">
         <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="E276">
         <v>1</v>
@@ -7568,21 +7658,21 @@
         <v>0.0024</v>
       </c>
       <c r="G276" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H276" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B277">
         <v>21</v>
       </c>
       <c r="C277" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="E277">
         <v>32</v>
@@ -7591,32 +7681,32 @@
         <v>0.0762</v>
       </c>
       <c r="G277" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H277" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B278">
         <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B279">
         <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="E279">
         <v>3</v>
@@ -7625,21 +7715,21 @@
         <v>0.0071</v>
       </c>
       <c r="G279" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H279" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B280">
         <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="E280">
         <v>6</v>
@@ -7648,21 +7738,21 @@
         <v>0.0143</v>
       </c>
       <c r="G280" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H280" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B281">
         <v>21</v>
       </c>
       <c r="C281" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="E281">
         <v>1</v>
@@ -7671,21 +7761,21 @@
         <v>0.0024</v>
       </c>
       <c r="G281" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H281" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="282" spans="1:8">
       <c r="A282" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B282">
         <v>21</v>
       </c>
       <c r="C282" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E282">
         <v>3</v>
@@ -7694,32 +7784,32 @@
         <v>0.0071</v>
       </c>
       <c r="G282" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H282" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="283" spans="1:8">
       <c r="A283" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B283">
         <v>21.3</v>
       </c>
       <c r="C283" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
     </row>
     <row r="284" spans="1:8">
       <c r="A284" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B284">
         <v>22</v>
       </c>
       <c r="C284" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="E284">
         <v>2</v>
@@ -7728,21 +7818,21 @@
         <v>0.0048</v>
       </c>
       <c r="G284" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H284" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="285" spans="1:8">
       <c r="A285" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B285">
         <v>22</v>
       </c>
       <c r="C285" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="E285">
         <v>4</v>
@@ -7751,21 +7841,21 @@
         <v>0.0095</v>
       </c>
       <c r="G285" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H285" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="286" spans="1:8">
       <c r="A286" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B286">
         <v>22</v>
       </c>
       <c r="C286" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="E286">
         <v>22</v>
@@ -7774,21 +7864,21 @@
         <v>0.0524</v>
       </c>
       <c r="G286" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H286" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="287" spans="1:8">
       <c r="A287" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B287">
         <v>22</v>
       </c>
       <c r="C287" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="E287">
         <v>4</v>
@@ -7797,21 +7887,21 @@
         <v>0.0095</v>
       </c>
       <c r="G287" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H287" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="288" spans="1:8">
       <c r="A288" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B288">
         <v>22</v>
       </c>
       <c r="C288" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="E288">
         <v>1</v>
@@ -7820,21 +7910,21 @@
         <v>0.0024</v>
       </c>
       <c r="G288" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H288" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="289" spans="1:8">
       <c r="A289" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B289">
         <v>22</v>
       </c>
       <c r="C289" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="E289">
         <v>1</v>
@@ -7843,21 +7933,21 @@
         <v>0.0024</v>
       </c>
       <c r="G289" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H289" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="290" spans="1:8">
       <c r="A290" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B290">
         <v>22</v>
       </c>
       <c r="C290" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="E290">
         <v>1</v>
@@ -7866,21 +7956,21 @@
         <v>0.0024</v>
       </c>
       <c r="G290" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H290" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="291" spans="1:8">
       <c r="A291" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B291">
         <v>23</v>
       </c>
       <c r="C291" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="E291">
         <v>2</v>
@@ -7889,21 +7979,21 @@
         <v>0.0048</v>
       </c>
       <c r="G291" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H291" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="292" spans="1:8">
       <c r="A292" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B292">
         <v>23</v>
       </c>
       <c r="C292" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="E292">
         <v>2</v>
@@ -7912,21 +8002,21 @@
         <v>0.0048</v>
       </c>
       <c r="G292" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H292" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="293" spans="1:8">
       <c r="A293" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B293">
         <v>23</v>
       </c>
       <c r="C293" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="E293">
         <v>11</v>
@@ -7935,21 +8025,21 @@
         <v>0.0262</v>
       </c>
       <c r="G293" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H293" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="294" spans="1:8">
       <c r="A294" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B294">
         <v>23</v>
       </c>
       <c r="C294" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E294">
         <v>8</v>
@@ -7958,32 +8048,32 @@
         <v>0.019</v>
       </c>
       <c r="G294" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H294" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="295" spans="1:8">
       <c r="A295" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B295">
         <v>24</v>
       </c>
       <c r="C295" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="296" spans="1:8">
       <c r="A296" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B296">
         <v>24</v>
       </c>
       <c r="C296" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E296">
         <v>1</v>
@@ -7992,21 +8082,21 @@
         <v>0.0024</v>
       </c>
       <c r="G296" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H296" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="297" spans="1:8">
       <c r="A297" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B297">
         <v>24</v>
       </c>
       <c r="C297" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="E297">
         <v>1</v>
@@ -8015,21 +8105,21 @@
         <v>0.0024</v>
       </c>
       <c r="G297" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H297" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="298" spans="1:8">
       <c r="A298" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B298">
         <v>24</v>
       </c>
       <c r="C298" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="E298">
         <v>1</v>
@@ -8038,21 +8128,21 @@
         <v>0.0024</v>
       </c>
       <c r="G298" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H298" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="299" spans="1:8">
       <c r="A299" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B299">
         <v>24</v>
       </c>
       <c r="C299" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="E299">
         <v>1</v>
@@ -8061,54 +8151,54 @@
         <v>0.0024</v>
       </c>
       <c r="G299" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="H299" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="300" spans="1:8">
       <c r="A300" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B300">
         <v>25</v>
       </c>
       <c r="C300" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
     </row>
     <row r="301" spans="1:8">
       <c r="A301" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B301">
         <v>25</v>
       </c>
       <c r="C301" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
     </row>
     <row r="302" spans="1:8">
       <c r="A302" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B302">
         <v>25</v>
       </c>
       <c r="C302" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
     </row>
     <row r="303" spans="1:8">
       <c r="A303" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B303">
         <v>25</v>
       </c>
       <c r="C303" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8118,7 +8208,7 @@
     </row>
     <row r="306" spans="1:8">
       <c r="A306" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -8132,24 +8222,24 @@
     </row>
     <row r="307" spans="1:8">
       <c r="A307" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B307">
         <v>11</v>
       </c>
       <c r="C307" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="308" spans="1:8">
       <c r="A308" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B308">
         <v>14</v>
       </c>
       <c r="C308" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="E308">
         <v>22</v>
@@ -8158,21 +8248,21 @@
         <v>0.0524</v>
       </c>
       <c r="G308" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H308" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="309" spans="1:8">
       <c r="A309" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B309">
         <v>14</v>
       </c>
       <c r="C309" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="E309">
         <v>11</v>
@@ -8181,21 +8271,21 @@
         <v>0.0262</v>
       </c>
       <c r="G309" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H309" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="310" spans="1:8">
       <c r="A310" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B310">
         <v>14</v>
       </c>
       <c r="C310" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E310">
         <v>2</v>
@@ -8204,21 +8294,21 @@
         <v>0.0048</v>
       </c>
       <c r="G310" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H310" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="311" spans="1:8">
       <c r="A311" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B311">
         <v>14</v>
       </c>
       <c r="C311" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="E311">
         <v>3</v>
@@ -8227,21 +8317,21 @@
         <v>0.0071</v>
       </c>
       <c r="G311" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H311" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="312" spans="1:8">
       <c r="A312" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B312">
         <v>15</v>
       </c>
       <c r="C312" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="E312">
         <v>20</v>
@@ -8250,21 +8340,21 @@
         <v>0.0476</v>
       </c>
       <c r="G312" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H312" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="313" spans="1:8">
       <c r="A313" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B313">
         <v>15</v>
       </c>
       <c r="C313" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="E313">
         <v>6</v>
@@ -8273,21 +8363,21 @@
         <v>0.0143</v>
       </c>
       <c r="G313" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H313" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="314" spans="1:8">
       <c r="A314" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B314">
         <v>16</v>
       </c>
       <c r="C314" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="E314">
         <v>19</v>
@@ -8296,21 +8386,21 @@
         <v>0.0452</v>
       </c>
       <c r="G314" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H314" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="315" spans="1:8">
       <c r="A315" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B315">
         <v>16</v>
       </c>
       <c r="C315" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E315">
         <v>55</v>
@@ -8319,21 +8409,21 @@
         <v>0.131</v>
       </c>
       <c r="G315" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H315" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="316" spans="1:8">
       <c r="A316" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B316">
         <v>17</v>
       </c>
       <c r="C316" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="E316">
         <v>4</v>
@@ -8342,21 +8432,21 @@
         <v>0.0095</v>
       </c>
       <c r="G316" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H316" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="317" spans="1:8">
       <c r="A317" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B317">
         <v>17</v>
       </c>
       <c r="C317" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="E317">
         <v>88</v>
@@ -8365,32 +8455,32 @@
         <v>0.2095</v>
       </c>
       <c r="G317" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H317" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="318" spans="1:8">
       <c r="A318" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B318">
         <v>17</v>
       </c>
       <c r="C318" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
     </row>
     <row r="319" spans="1:8">
       <c r="A319" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B319">
         <v>17</v>
       </c>
       <c r="C319" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="E319">
         <v>2</v>
@@ -8399,21 +8489,21 @@
         <v>0.0048</v>
       </c>
       <c r="G319" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H319" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="320" spans="1:8">
       <c r="A320" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B320">
         <v>18</v>
       </c>
       <c r="C320" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="E320">
         <v>58</v>
@@ -8422,21 +8512,21 @@
         <v>0.1381</v>
       </c>
       <c r="G320" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H320" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="321" spans="1:8">
       <c r="A321" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B321">
         <v>19</v>
       </c>
       <c r="C321" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="E321">
         <v>19</v>
@@ -8445,21 +8535,21 @@
         <v>0.0452</v>
       </c>
       <c r="G321" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H321" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="322" spans="1:8">
       <c r="A322" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B322">
         <v>20</v>
       </c>
       <c r="C322" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="E322">
         <v>3</v>
@@ -8468,10 +8558,10 @@
         <v>0.0071</v>
       </c>
       <c r="G322" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="H322" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8481,7 +8571,7 @@
     </row>
     <row r="325" spans="1:8">
       <c r="A325" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -8495,13 +8585,13 @@
     </row>
     <row r="326" spans="1:8">
       <c r="A326" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B326">
         <v>8</v>
       </c>
       <c r="C326" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E326">
         <v>59</v>
@@ -8510,21 +8600,21 @@
         <v>0.1405</v>
       </c>
       <c r="G326" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H326" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="327" spans="1:8">
       <c r="A327" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B327">
         <v>9</v>
       </c>
       <c r="C327" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -8533,21 +8623,21 @@
         <v>0.0024</v>
       </c>
       <c r="G327" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H327" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="328" spans="1:8">
       <c r="A328" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B328">
         <v>9</v>
       </c>
       <c r="C328" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E328">
         <v>54</v>
@@ -8556,32 +8646,32 @@
         <v>0.1286</v>
       </c>
       <c r="G328" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H328" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="329" spans="1:8">
       <c r="A329" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B329">
         <v>9</v>
       </c>
       <c r="C329" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="330" spans="1:8">
       <c r="A330" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B330">
         <v>10</v>
       </c>
       <c r="C330" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="E330">
         <v>27</v>
@@ -8590,21 +8680,24 @@
         <v>0.0643</v>
       </c>
       <c r="G330" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H330" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="331" spans="1:8">
       <c r="A331" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B331">
         <v>10</v>
       </c>
       <c r="C331" t="s">
-        <v>173</v>
+        <v>177</v>
+      </c>
+      <c r="D331" t="s">
+        <v>303</v>
       </c>
       <c r="E331">
         <v>5</v>
@@ -8613,32 +8706,32 @@
         <v>0.0119</v>
       </c>
       <c r="G331" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H331" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="332" spans="1:8">
       <c r="A332" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B332">
         <v>10</v>
       </c>
       <c r="C332" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="333" spans="1:8">
       <c r="A333" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B333">
         <v>11</v>
       </c>
       <c r="C333" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E333">
         <v>58</v>
@@ -8647,21 +8740,24 @@
         <v>0.1381</v>
       </c>
       <c r="G333" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H333" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="334" spans="1:8">
       <c r="A334" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B334">
         <v>11</v>
       </c>
       <c r="C334" t="s">
-        <v>175</v>
+        <v>179</v>
+      </c>
+      <c r="D334" t="s">
+        <v>303</v>
       </c>
       <c r="E334">
         <v>61</v>
@@ -8670,24 +8766,24 @@
         <v>0.1452</v>
       </c>
       <c r="G334" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H334" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="335" spans="1:8">
       <c r="A335" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B335">
         <v>11</v>
       </c>
       <c r="C335" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D335" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="E335">
         <v>9</v>
@@ -8696,21 +8792,21 @@
         <v>0.0214</v>
       </c>
       <c r="G335" t="s">
-        <v>299</v>
+        <v>306</v>
       </c>
       <c r="H335" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="336" spans="1:8">
       <c r="A336" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B336">
         <v>12</v>
       </c>
       <c r="C336" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="E336">
         <v>61</v>
@@ -8719,24 +8815,24 @@
         <v>0.1452</v>
       </c>
       <c r="G336" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H336" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="337" spans="1:8">
       <c r="A337" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B337">
         <v>12</v>
       </c>
       <c r="C337" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D337" t="s">
-        <v>300</v>
+        <v>307</v>
       </c>
       <c r="E337">
         <v>1</v>
@@ -8745,21 +8841,24 @@
         <v>0.0024</v>
       </c>
       <c r="G337" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="H337" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="338" spans="1:8">
       <c r="A338" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B338">
         <v>12</v>
       </c>
       <c r="C338" t="s">
-        <v>176</v>
+        <v>180</v>
+      </c>
+      <c r="D338" t="s">
+        <v>303</v>
       </c>
       <c r="E338">
         <v>37</v>
@@ -8768,21 +8867,21 @@
         <v>0.0881</v>
       </c>
       <c r="G338" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H338" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="339" spans="1:8">
       <c r="A339" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B339">
         <v>13</v>
       </c>
       <c r="C339" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="E339">
         <v>21</v>
@@ -8791,21 +8890,24 @@
         <v>0.05</v>
       </c>
       <c r="G339" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H339" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="340" spans="1:8">
       <c r="A340" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B340">
         <v>13</v>
       </c>
       <c r="C340" t="s">
-        <v>177</v>
+        <v>181</v>
+      </c>
+      <c r="D340" t="s">
+        <v>303</v>
       </c>
       <c r="E340">
         <v>8</v>
@@ -8814,32 +8916,32 @@
         <v>0.019</v>
       </c>
       <c r="G340" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H340" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="341" spans="1:8">
       <c r="A341" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B341">
         <v>13</v>
       </c>
       <c r="C341" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="342" spans="1:8">
       <c r="A342" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B342">
         <v>14</v>
       </c>
       <c r="C342" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="E342">
         <v>6</v>
@@ -8848,21 +8950,24 @@
         <v>0.0143</v>
       </c>
       <c r="G342" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H342" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="343" spans="1:8">
       <c r="A343" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B343">
         <v>14</v>
       </c>
       <c r="C343" t="s">
-        <v>178</v>
+        <v>182</v>
+      </c>
+      <c r="D343" t="s">
+        <v>303</v>
       </c>
       <c r="E343">
         <v>2</v>
@@ -8871,21 +8976,21 @@
         <v>0.0048</v>
       </c>
       <c r="G343" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H343" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="344" spans="1:8">
       <c r="A344" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B344">
         <v>15</v>
       </c>
       <c r="C344" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -8894,21 +8999,24 @@
         <v>0.0024</v>
       </c>
       <c r="G344" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H344" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="345" spans="1:8">
       <c r="A345" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B345">
         <v>15</v>
       </c>
       <c r="C345" t="s">
-        <v>302</v>
+        <v>309</v>
+      </c>
+      <c r="D345" t="s">
+        <v>303</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -8917,21 +9025,21 @@
         <v>0.0024</v>
       </c>
       <c r="G345" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H345" t="s">
-        <v>297</v>
+        <v>304</v>
       </c>
     </row>
     <row r="346" spans="1:8">
       <c r="A346" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="B346">
         <v>17</v>
       </c>
       <c r="C346" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -8941,7 +9049,7 @@
     </row>
     <row r="349" spans="1:8">
       <c r="A349" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -8955,13 +9063,13 @@
     </row>
     <row r="350" spans="1:8">
       <c r="A350" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B350">
         <v>5</v>
       </c>
       <c r="C350" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="E350">
         <v>40</v>
@@ -8970,29 +9078,29 @@
         <v>0.09520000000000001</v>
       </c>
       <c r="G350" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="351" spans="1:8">
       <c r="A351" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B351">
         <v>5</v>
       </c>
       <c r="C351" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
     </row>
     <row r="352" spans="1:8">
       <c r="A352" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B352">
         <v>7</v>
       </c>
       <c r="C352" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="E352">
         <v>66</v>
@@ -9001,18 +9109,18 @@
         <v>0.1571</v>
       </c>
       <c r="G352" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B353">
         <v>8</v>
       </c>
       <c r="C353" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="E353">
         <v>11</v>
@@ -9021,18 +9129,18 @@
         <v>0.0262</v>
       </c>
       <c r="G353" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B354">
         <v>9</v>
       </c>
       <c r="C354" t="s">
-        <v>310</v>
+        <v>317</v>
       </c>
       <c r="E354">
         <v>11</v>
@@ -9041,18 +9149,18 @@
         <v>0.0262</v>
       </c>
       <c r="G354" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B355">
         <v>10</v>
       </c>
       <c r="C355" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="E355">
         <v>44</v>
@@ -9061,18 +9169,18 @@
         <v>0.1048</v>
       </c>
       <c r="G355" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B356">
         <v>11</v>
       </c>
       <c r="C356" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="E356">
         <v>42</v>
@@ -9081,29 +9189,29 @@
         <v>0.1</v>
       </c>
       <c r="G356" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B357">
         <v>11.3</v>
       </c>
       <c r="C357" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B358">
         <v>12</v>
       </c>
       <c r="C358" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="E358">
         <v>66</v>
@@ -9112,18 +9220,18 @@
         <v>0.1571</v>
       </c>
       <c r="G358" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B359">
         <v>13</v>
       </c>
       <c r="C359" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="E359">
         <v>42</v>
@@ -9132,18 +9240,18 @@
         <v>0.1</v>
       </c>
       <c r="G359" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="360" spans="1:7">
       <c r="A360" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B360">
         <v>13.4</v>
       </c>
       <c r="C360" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="E360">
         <v>1</v>
@@ -9152,18 +9260,18 @@
         <v>0.0024</v>
       </c>
       <c r="G360" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="361" spans="1:7">
       <c r="A361" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B361">
         <v>14</v>
       </c>
       <c r="C361" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="E361">
         <v>19</v>
@@ -9172,18 +9280,18 @@
         <v>0.0452</v>
       </c>
       <c r="G361" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="362" spans="1:7">
       <c r="A362" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B362">
         <v>15</v>
       </c>
       <c r="C362" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="E362">
         <v>15</v>
@@ -9192,18 +9300,18 @@
         <v>0.0357</v>
       </c>
       <c r="G362" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="363" spans="1:7">
       <c r="A363" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B363">
         <v>16</v>
       </c>
       <c r="C363" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="E363">
         <v>27</v>
@@ -9212,18 +9320,18 @@
         <v>0.0643</v>
       </c>
       <c r="G363" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="364" spans="1:7">
       <c r="A364" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B364">
         <v>17</v>
       </c>
       <c r="C364" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="E364">
         <v>11</v>
@@ -9232,18 +9340,18 @@
         <v>0.0262</v>
       </c>
       <c r="G364" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="365" spans="1:7">
       <c r="A365" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B365">
         <v>18</v>
       </c>
       <c r="C365" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="E365">
         <v>14</v>
@@ -9252,18 +9360,18 @@
         <v>0.0333</v>
       </c>
       <c r="G365" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="366" spans="1:7">
       <c r="A366" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B366">
         <v>19</v>
       </c>
       <c r="C366" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="E366">
         <v>5</v>
@@ -9272,18 +9380,18 @@
         <v>0.0119</v>
       </c>
       <c r="G366" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="367" spans="1:7">
       <c r="A367" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B367">
         <v>20</v>
       </c>
       <c r="C367" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="E367">
         <v>1</v>
@@ -9292,18 +9400,18 @@
         <v>0.0024</v>
       </c>
       <c r="G367" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="368" spans="1:7">
       <c r="A368" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B368">
         <v>23</v>
       </c>
       <c r="C368" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E368">
         <v>1</v>
@@ -9312,7 +9420,7 @@
         <v>0.0024</v>
       </c>
       <c r="G368" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9322,7 +9430,7 @@
     </row>
     <row r="371" spans="1:8">
       <c r="A371" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -9336,13 +9444,13 @@
     </row>
     <row r="372" spans="1:8">
       <c r="A372" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B372">
         <v>8</v>
       </c>
       <c r="C372" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="E372">
         <v>1</v>
@@ -9351,21 +9459,24 @@
         <v>0.0024</v>
       </c>
       <c r="G372" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H372" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="373" spans="1:8">
       <c r="A373" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B373">
         <v>8</v>
       </c>
       <c r="C373" t="s">
-        <v>326</v>
+        <v>333</v>
+      </c>
+      <c r="D373" t="s">
+        <v>336</v>
       </c>
       <c r="E373">
         <v>1</v>
@@ -9374,21 +9485,21 @@
         <v>0.0024</v>
       </c>
       <c r="G373" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="H373" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="374" spans="1:8">
       <c r="A374" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B374">
         <v>9</v>
       </c>
       <c r="C374" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="E374">
         <v>31</v>
@@ -9397,21 +9508,24 @@
         <v>0.0738</v>
       </c>
       <c r="G374" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H374" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="375" spans="1:8">
       <c r="A375" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B375">
         <v>9</v>
       </c>
       <c r="C375" t="s">
-        <v>330</v>
+        <v>338</v>
+      </c>
+      <c r="D375" t="s">
+        <v>339</v>
       </c>
       <c r="E375">
         <v>26</v>
@@ -9420,21 +9534,21 @@
         <v>0.0619</v>
       </c>
       <c r="G375" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H375" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="376" spans="1:8">
       <c r="A376" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B376">
         <v>10</v>
       </c>
       <c r="C376" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="E376">
         <v>9</v>
@@ -9443,21 +9557,24 @@
         <v>0.0214</v>
       </c>
       <c r="G376" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H376" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="377" spans="1:8">
       <c r="A377" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B377">
         <v>10</v>
       </c>
       <c r="C377" t="s">
-        <v>332</v>
+        <v>341</v>
+      </c>
+      <c r="D377" t="s">
+        <v>339</v>
       </c>
       <c r="E377">
         <v>15</v>
@@ -9466,21 +9583,21 @@
         <v>0.0357</v>
       </c>
       <c r="G377" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H377" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="378" spans="1:8">
       <c r="A378" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B378">
         <v>11</v>
       </c>
       <c r="C378" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="E378">
         <v>104</v>
@@ -9489,21 +9606,24 @@
         <v>0.2476</v>
       </c>
       <c r="G378" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H378" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="379" spans="1:8">
       <c r="A379" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B379">
         <v>11</v>
       </c>
       <c r="C379" t="s">
-        <v>333</v>
+        <v>342</v>
+      </c>
+      <c r="D379" t="s">
+        <v>339</v>
       </c>
       <c r="E379">
         <v>3</v>
@@ -9512,21 +9632,21 @@
         <v>0.0071</v>
       </c>
       <c r="G379" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H379" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="380" spans="1:8">
       <c r="A380" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B380">
         <v>12</v>
       </c>
       <c r="C380" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E380">
         <v>131</v>
@@ -9535,21 +9655,24 @@
         <v>0.3119</v>
       </c>
       <c r="G380" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H380" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="381" spans="1:8">
       <c r="A381" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B381">
         <v>12</v>
       </c>
       <c r="C381" t="s">
-        <v>334</v>
+        <v>343</v>
+      </c>
+      <c r="D381" t="s">
+        <v>339</v>
       </c>
       <c r="E381">
         <v>1</v>
@@ -9558,21 +9681,21 @@
         <v>0.0024</v>
       </c>
       <c r="G381" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H381" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="382" spans="1:8">
       <c r="A382" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B382">
         <v>13</v>
       </c>
       <c r="C382" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
       <c r="E382">
         <v>81</v>
@@ -9581,21 +9704,24 @@
         <v>0.1929</v>
       </c>
       <c r="G382" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H382" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="383" spans="1:8">
       <c r="A383" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B383">
         <v>13</v>
       </c>
       <c r="C383" t="s">
-        <v>335</v>
+        <v>344</v>
+      </c>
+      <c r="D383" t="s">
+        <v>339</v>
       </c>
       <c r="E383">
         <v>1</v>
@@ -9604,21 +9730,21 @@
         <v>0.0024</v>
       </c>
       <c r="G383" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H383" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
     </row>
     <row r="384" spans="1:8">
       <c r="A384" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B384">
         <v>14</v>
       </c>
       <c r="C384" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="E384">
         <v>13</v>
@@ -9627,21 +9753,21 @@
         <v>0.031</v>
       </c>
       <c r="G384" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H384" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="385" spans="1:8">
       <c r="A385" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B385">
         <v>15</v>
       </c>
       <c r="C385" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="E385">
         <v>1</v>
@@ -9650,10 +9776,10 @@
         <v>0.0024</v>
       </c>
       <c r="G385" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="H385" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -9663,7 +9789,7 @@
     </row>
     <row r="388" spans="1:8">
       <c r="A388" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -9677,13 +9803,13 @@
     </row>
     <row r="389" spans="1:8">
       <c r="A389" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B389">
         <v>10</v>
       </c>
       <c r="C389" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
       <c r="E389">
         <v>3</v>
@@ -9692,21 +9818,21 @@
         <v>0.0071</v>
       </c>
       <c r="G389" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H389" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="390" spans="1:8">
       <c r="A390" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B390">
         <v>11</v>
       </c>
       <c r="C390" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="E390">
         <v>6</v>
@@ -9715,21 +9841,21 @@
         <v>0.0143</v>
       </c>
       <c r="G390" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H390" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="391" spans="1:8">
       <c r="A391" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B391">
         <v>12</v>
       </c>
       <c r="C391" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="E391">
         <v>51</v>
@@ -9738,21 +9864,21 @@
         <v>0.1214</v>
       </c>
       <c r="G391" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H391" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="392" spans="1:8">
       <c r="A392" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B392">
         <v>13</v>
       </c>
       <c r="C392" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E392">
         <v>43</v>
@@ -9761,21 +9887,21 @@
         <v>0.1024</v>
       </c>
       <c r="G392" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H392" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="393" spans="1:8">
       <c r="A393" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B393">
         <v>14</v>
       </c>
       <c r="C393" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="E393">
         <v>59</v>
@@ -9784,21 +9910,21 @@
         <v>0.1405</v>
       </c>
       <c r="G393" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H393" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="394" spans="1:8">
       <c r="A394" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B394">
         <v>14</v>
       </c>
       <c r="C394" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="E394">
         <v>2</v>
@@ -9807,21 +9933,21 @@
         <v>0.0048</v>
       </c>
       <c r="G394" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H394" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="395" spans="1:8">
       <c r="A395" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B395">
         <v>15</v>
       </c>
       <c r="C395" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="E395">
         <v>59</v>
@@ -9830,21 +9956,21 @@
         <v>0.1405</v>
       </c>
       <c r="G395" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H395" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="396" spans="1:8">
       <c r="A396" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B396">
         <v>16</v>
       </c>
       <c r="C396" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="E396">
         <v>85</v>
@@ -9853,21 +9979,21 @@
         <v>0.2024</v>
       </c>
       <c r="G396" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H396" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="397" spans="1:8">
       <c r="A397" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B397">
         <v>17</v>
       </c>
       <c r="C397" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="E397">
         <v>38</v>
@@ -9876,21 +10002,21 @@
         <v>0.0905</v>
       </c>
       <c r="G397" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H397" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="398" spans="1:8">
       <c r="A398" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B398">
         <v>18</v>
       </c>
       <c r="C398" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="E398">
         <v>32</v>
@@ -9899,21 +10025,21 @@
         <v>0.0762</v>
       </c>
       <c r="G398" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H398" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="399" spans="1:8">
       <c r="A399" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B399">
         <v>19</v>
       </c>
       <c r="C399" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
       <c r="E399">
         <v>20</v>
@@ -9922,21 +10048,21 @@
         <v>0.0476</v>
       </c>
       <c r="G399" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H399" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="400" spans="1:8">
       <c r="A400" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B400">
         <v>20</v>
       </c>
       <c r="C400" t="s">
-        <v>352</v>
+        <v>361</v>
       </c>
       <c r="E400">
         <v>10</v>
@@ -9945,21 +10071,21 @@
         <v>0.0238</v>
       </c>
       <c r="G400" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H400" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="401" spans="1:8">
       <c r="A401" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B401">
         <v>21</v>
       </c>
       <c r="C401" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
       <c r="E401">
         <v>4</v>
@@ -9968,21 +10094,21 @@
         <v>0.0095</v>
       </c>
       <c r="G401" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H401" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="402" spans="1:8">
       <c r="A402" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="B402">
         <v>22</v>
       </c>
       <c r="C402" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="E402">
         <v>2</v>
@@ -9991,10 +10117,10 @@
         <v>0.0048</v>
       </c>
       <c r="G402" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="H402" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10004,7 +10130,7 @@
     </row>
     <row r="405" spans="1:8">
       <c r="A405" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -10012,68 +10138,68 @@
     </row>
     <row r="406" spans="1:8">
       <c r="A406" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B406">
         <v>14.3</v>
       </c>
       <c r="C406" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
     </row>
     <row r="407" spans="1:8">
       <c r="A407" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B407">
         <v>14.3</v>
       </c>
       <c r="C407" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
     </row>
     <row r="408" spans="1:8">
       <c r="A408" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B408">
         <v>14.3</v>
       </c>
       <c r="C408" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
     </row>
     <row r="409" spans="1:8">
       <c r="A409" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B409">
         <v>15.3</v>
       </c>
       <c r="C409" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
     </row>
     <row r="410" spans="1:8">
       <c r="A410" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B410">
         <v>25</v>
       </c>
       <c r="C410" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
     </row>
     <row r="411" spans="1:8">
       <c r="A411" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B411">
         <v>26</v>
       </c>
       <c r="C411" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="E411">
         <v>1</v>
@@ -10082,21 +10208,21 @@
         <v>0.0024</v>
       </c>
       <c r="G411" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H411" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="412" spans="1:8">
       <c r="A412" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B412">
         <v>27</v>
       </c>
       <c r="C412" t="s">
-        <v>364</v>
+        <v>373</v>
       </c>
       <c r="E412">
         <v>1</v>
@@ -10105,21 +10231,21 @@
         <v>0.0024</v>
       </c>
       <c r="G412" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H412" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="413" spans="1:8">
       <c r="A413" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B413">
         <v>27</v>
       </c>
       <c r="C413" t="s">
-        <v>365</v>
+        <v>374</v>
       </c>
       <c r="E413">
         <v>1</v>
@@ -10128,21 +10254,21 @@
         <v>0.0024</v>
       </c>
       <c r="G413" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H413" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="414" spans="1:8">
       <c r="A414" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B414">
         <v>27</v>
       </c>
       <c r="C414" t="s">
-        <v>366</v>
+        <v>375</v>
       </c>
       <c r="E414">
         <v>11</v>
@@ -10151,21 +10277,21 @@
         <v>0.0262</v>
       </c>
       <c r="G414" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H414" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="415" spans="1:8">
       <c r="A415" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B415">
         <v>28</v>
       </c>
       <c r="C415" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="E415">
         <v>3</v>
@@ -10174,32 +10300,32 @@
         <v>0.0071</v>
       </c>
       <c r="G415" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H415" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="416" spans="1:8">
       <c r="A416" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B416">
         <v>28</v>
       </c>
       <c r="C416" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
     </row>
     <row r="417" spans="1:8">
       <c r="A417" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B417">
         <v>28</v>
       </c>
       <c r="C417" t="s">
-        <v>369</v>
+        <v>378</v>
       </c>
       <c r="E417">
         <v>56</v>
@@ -10208,21 +10334,21 @@
         <v>0.1333</v>
       </c>
       <c r="G417" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H417" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="418" spans="1:8">
       <c r="A418" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B418">
         <v>29</v>
       </c>
       <c r="C418" t="s">
-        <v>370</v>
+        <v>379</v>
       </c>
       <c r="E418">
         <v>30</v>
@@ -10231,21 +10357,21 @@
         <v>0.07140000000000001</v>
       </c>
       <c r="G418" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H418" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="419" spans="1:8">
       <c r="A419" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B419">
         <v>29</v>
       </c>
       <c r="C419" t="s">
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E419">
         <v>1</v>
@@ -10254,32 +10380,32 @@
         <v>0.0024</v>
       </c>
       <c r="G419" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H419" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="420" spans="1:8">
       <c r="A420" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B420">
         <v>29</v>
       </c>
       <c r="C420" t="s">
-        <v>372</v>
+        <v>381</v>
       </c>
     </row>
     <row r="421" spans="1:8">
       <c r="A421" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B421">
         <v>29</v>
       </c>
       <c r="C421" t="s">
-        <v>373</v>
+        <v>382</v>
       </c>
       <c r="E421">
         <v>61</v>
@@ -10288,21 +10414,21 @@
         <v>0.1452</v>
       </c>
       <c r="G421" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H421" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="422" spans="1:8">
       <c r="A422" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B422">
         <v>29</v>
       </c>
       <c r="C422" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="E422">
         <v>1</v>
@@ -10311,43 +10437,43 @@
         <v>0.0024</v>
       </c>
       <c r="G422" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H422" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="423" spans="1:8">
       <c r="A423" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B423">
         <v>29.2</v>
       </c>
       <c r="C423" t="s">
-        <v>375</v>
+        <v>384</v>
       </c>
     </row>
     <row r="424" spans="1:8">
       <c r="A424" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B424">
         <v>30</v>
       </c>
       <c r="C424" t="s">
-        <v>376</v>
+        <v>385</v>
       </c>
     </row>
     <row r="425" spans="1:8">
       <c r="A425" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B425">
         <v>30</v>
       </c>
       <c r="C425" t="s">
-        <v>377</v>
+        <v>386</v>
       </c>
       <c r="E425">
         <v>1</v>
@@ -10356,21 +10482,21 @@
         <v>0.0024</v>
       </c>
       <c r="G425" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H425" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="426" spans="1:8">
       <c r="A426" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B426">
         <v>30</v>
       </c>
       <c r="C426" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="E426">
         <v>37</v>
@@ -10379,21 +10505,21 @@
         <v>0.0881</v>
       </c>
       <c r="G426" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H426" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="427" spans="1:8">
       <c r="A427" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B427">
         <v>30</v>
       </c>
       <c r="C427" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="E427">
         <v>1</v>
@@ -10402,21 +10528,21 @@
         <v>0.0024</v>
       </c>
       <c r="G427" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H427" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="428" spans="1:8">
       <c r="A428" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B428">
         <v>30</v>
       </c>
       <c r="C428" t="s">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="E428">
         <v>1</v>
@@ -10425,21 +10551,21 @@
         <v>0.0024</v>
       </c>
       <c r="G428" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H428" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="429" spans="1:8">
       <c r="A429" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B429">
         <v>30</v>
       </c>
       <c r="C429" t="s">
-        <v>381</v>
+        <v>390</v>
       </c>
       <c r="E429">
         <v>17</v>
@@ -10448,21 +10574,21 @@
         <v>0.0405</v>
       </c>
       <c r="G429" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H429" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="430" spans="1:8">
       <c r="A430" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B430">
         <v>30</v>
       </c>
       <c r="C430" t="s">
-        <v>382</v>
+        <v>391</v>
       </c>
       <c r="E430">
         <v>27</v>
@@ -10471,21 +10597,21 @@
         <v>0.0643</v>
       </c>
       <c r="G430" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H430" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="431" spans="1:8">
       <c r="A431" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B431">
         <v>30.2</v>
       </c>
       <c r="C431" t="s">
-        <v>383</v>
+        <v>392</v>
       </c>
       <c r="E431">
         <v>2</v>
@@ -10494,21 +10620,21 @@
         <v>0.0048</v>
       </c>
       <c r="G431" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H431" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="432" spans="1:8">
       <c r="A432" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B432">
         <v>30.2</v>
       </c>
       <c r="C432" t="s">
-        <v>385</v>
+        <v>394</v>
       </c>
       <c r="E432">
         <v>18</v>
@@ -10517,21 +10643,21 @@
         <v>0.0429</v>
       </c>
       <c r="G432" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H432" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="433" spans="1:8">
       <c r="A433" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B433">
         <v>31</v>
       </c>
       <c r="C433" t="s">
-        <v>386</v>
+        <v>395</v>
       </c>
       <c r="E433">
         <v>1</v>
@@ -10540,21 +10666,21 @@
         <v>0.0024</v>
       </c>
       <c r="G433" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H433" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="434" spans="1:8">
       <c r="A434" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B434">
         <v>31</v>
       </c>
       <c r="C434" t="s">
-        <v>387</v>
+        <v>396</v>
       </c>
       <c r="E434">
         <v>8</v>
@@ -10563,21 +10689,21 @@
         <v>0.019</v>
       </c>
       <c r="G434" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H434" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="435" spans="1:8">
       <c r="A435" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B435">
         <v>31</v>
       </c>
       <c r="C435" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="E435">
         <v>1</v>
@@ -10586,21 +10712,21 @@
         <v>0.0024</v>
       </c>
       <c r="G435" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H435" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="436" spans="1:8">
       <c r="A436" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B436">
         <v>31</v>
       </c>
       <c r="C436" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="E436">
         <v>13</v>
@@ -10609,21 +10735,21 @@
         <v>0.031</v>
       </c>
       <c r="G436" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H436" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="437" spans="1:8">
       <c r="A437" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B437">
         <v>31</v>
       </c>
       <c r="C437" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="E437">
         <v>6</v>
@@ -10632,21 +10758,21 @@
         <v>0.0143</v>
       </c>
       <c r="G437" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H437" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="438" spans="1:8">
       <c r="A438" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B438">
         <v>31.2</v>
       </c>
       <c r="C438" t="s">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="E438">
         <v>2</v>
@@ -10655,21 +10781,21 @@
         <v>0.0048</v>
       </c>
       <c r="G438" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H438" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="439" spans="1:8">
       <c r="A439" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B439">
         <v>31.2</v>
       </c>
       <c r="C439" t="s">
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="E439">
         <v>46</v>
@@ -10678,32 +10804,32 @@
         <v>0.1095</v>
       </c>
       <c r="G439" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H439" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="440" spans="1:8">
       <c r="A440" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B440">
         <v>32</v>
       </c>
       <c r="C440" t="s">
-        <v>393</v>
+        <v>402</v>
       </c>
     </row>
     <row r="441" spans="1:8">
       <c r="A441" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B441">
         <v>32</v>
       </c>
       <c r="C441" t="s">
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="E441">
         <v>2</v>
@@ -10712,21 +10838,21 @@
         <v>0.0048</v>
       </c>
       <c r="G441" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H441" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="442" spans="1:8">
       <c r="A442" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B442">
         <v>32</v>
       </c>
       <c r="C442" t="s">
-        <v>395</v>
+        <v>404</v>
       </c>
       <c r="E442">
         <v>1</v>
@@ -10735,21 +10861,21 @@
         <v>0.0024</v>
       </c>
       <c r="G442" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H442" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="443" spans="1:8">
       <c r="A443" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B443">
         <v>32</v>
       </c>
       <c r="C443" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E443">
         <v>6</v>
@@ -10758,21 +10884,21 @@
         <v>0.0143</v>
       </c>
       <c r="G443" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H443" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="444" spans="1:8">
       <c r="A444" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B444">
         <v>32</v>
       </c>
       <c r="C444" t="s">
-        <v>396</v>
+        <v>405</v>
       </c>
       <c r="E444">
         <v>1</v>
@@ -10781,32 +10907,32 @@
         <v>0.0024</v>
       </c>
       <c r="G444" t="s">
-        <v>397</v>
+        <v>406</v>
       </c>
       <c r="H444" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
     </row>
     <row r="445" spans="1:8">
       <c r="A445" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B445">
         <v>32.2</v>
       </c>
       <c r="C445" t="s">
-        <v>398</v>
+        <v>407</v>
       </c>
     </row>
     <row r="446" spans="1:8">
       <c r="A446" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B446">
         <v>32.2</v>
       </c>
       <c r="C446" t="s">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="E446">
         <v>37</v>
@@ -10815,21 +10941,21 @@
         <v>0.0881</v>
       </c>
       <c r="G446" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H446" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="447" spans="1:8">
       <c r="A447" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B447">
         <v>33.2</v>
       </c>
       <c r="C447" t="s">
-        <v>400</v>
+        <v>409</v>
       </c>
       <c r="E447">
         <v>2</v>
@@ -10838,21 +10964,21 @@
         <v>0.0048</v>
       </c>
       <c r="G447" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H447" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="448" spans="1:8">
       <c r="A448" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B448">
         <v>33.2</v>
       </c>
       <c r="C448" t="s">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="E448">
         <v>17</v>
@@ -10861,21 +10987,21 @@
         <v>0.0405</v>
       </c>
       <c r="G448" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H448" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="449" spans="1:8">
       <c r="A449" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B449">
         <v>33.2</v>
       </c>
       <c r="C449" t="s">
-        <v>402</v>
+        <v>411</v>
       </c>
       <c r="E449">
         <v>1</v>
@@ -10884,21 +11010,21 @@
         <v>0.0024</v>
       </c>
       <c r="G449" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H449" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="450" spans="1:8">
       <c r="A450" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B450">
         <v>34.2</v>
       </c>
       <c r="C450" t="s">
-        <v>403</v>
+        <v>412</v>
       </c>
       <c r="E450">
         <v>4</v>
@@ -10907,21 +11033,21 @@
         <v>0.0095</v>
       </c>
       <c r="G450" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H450" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="451" spans="1:8">
       <c r="A451" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="B451">
         <v>35</v>
       </c>
       <c r="C451" t="s">
-        <v>404</v>
+        <v>413</v>
       </c>
       <c r="E451">
         <v>1</v>
@@ -10930,10 +11056,10 @@
         <v>0.0024</v>
       </c>
       <c r="G451" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="H451" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -10943,7 +11069,7 @@
     </row>
     <row r="454" spans="1:8">
       <c r="A454" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B454">
         <v>0</v>
@@ -10957,13 +11083,13 @@
     </row>
     <row r="455" spans="1:8">
       <c r="A455" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B455">
         <v>7</v>
       </c>
       <c r="C455" t="s">
-        <v>406</v>
+        <v>415</v>
       </c>
       <c r="E455">
         <v>12</v>
@@ -10972,21 +11098,21 @@
         <v>0.0286</v>
       </c>
       <c r="G455" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H455" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="456" spans="1:8">
       <c r="A456" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B456">
         <v>8</v>
       </c>
       <c r="C456" t="s">
-        <v>409</v>
+        <v>418</v>
       </c>
       <c r="E456">
         <v>8</v>
@@ -10995,21 +11121,21 @@
         <v>0.019</v>
       </c>
       <c r="G456" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H456" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="457" spans="1:8">
       <c r="A457" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B457">
         <v>9</v>
       </c>
       <c r="C457" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E457">
         <v>1</v>
@@ -11018,21 +11144,21 @@
         <v>0.0024</v>
       </c>
       <c r="G457" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H457" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="458" spans="1:8">
       <c r="A458" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B458">
         <v>9</v>
       </c>
       <c r="C458" t="s">
-        <v>410</v>
+        <v>419</v>
       </c>
       <c r="E458">
         <v>99</v>
@@ -11041,21 +11167,21 @@
         <v>0.2357</v>
       </c>
       <c r="G458" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H458" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="459" spans="1:8">
       <c r="A459" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B459">
         <v>10</v>
       </c>
       <c r="C459" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E459">
         <v>1</v>
@@ -11064,21 +11190,21 @@
         <v>0.0024</v>
       </c>
       <c r="G459" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H459" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="460" spans="1:8">
       <c r="A460" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B460">
         <v>10</v>
       </c>
       <c r="C460" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E460">
         <v>2</v>
@@ -11087,21 +11213,21 @@
         <v>0.0048</v>
       </c>
       <c r="G460" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H460" t="s">
-        <v>414</v>
+        <v>423</v>
       </c>
     </row>
     <row r="461" spans="1:8">
       <c r="A461" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B461">
         <v>10</v>
       </c>
       <c r="C461" t="s">
-        <v>412</v>
+        <v>421</v>
       </c>
       <c r="E461">
         <v>63</v>
@@ -11110,21 +11236,21 @@
         <v>0.15</v>
       </c>
       <c r="G461" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H461" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="462" spans="1:8">
       <c r="A462" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B462">
         <v>11</v>
       </c>
       <c r="C462" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E462">
         <v>1</v>
@@ -11133,21 +11259,21 @@
         <v>0.0024</v>
       </c>
       <c r="G462" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H462" t="s">
-        <v>413</v>
+        <v>422</v>
       </c>
     </row>
     <row r="463" spans="1:8">
       <c r="A463" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B463">
         <v>11</v>
       </c>
       <c r="C463" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E463">
         <v>2</v>
@@ -11156,21 +11282,21 @@
         <v>0.0048</v>
       </c>
       <c r="G463" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H463" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="464" spans="1:8">
       <c r="A464" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B464">
         <v>11</v>
       </c>
       <c r="C464" t="s">
-        <v>415</v>
+        <v>424</v>
       </c>
       <c r="E464">
         <v>52</v>
@@ -11179,21 +11305,21 @@
         <v>0.1238</v>
       </c>
       <c r="G464" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H464" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="465" spans="1:8">
       <c r="A465" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B465">
         <v>12</v>
       </c>
       <c r="C465" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E465">
         <v>4</v>
@@ -11202,21 +11328,21 @@
         <v>0.0095</v>
       </c>
       <c r="G465" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H465" t="s">
-        <v>411</v>
+        <v>420</v>
       </c>
     </row>
     <row r="466" spans="1:8">
       <c r="A466" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B466">
         <v>12</v>
       </c>
       <c r="C466" t="s">
-        <v>416</v>
+        <v>425</v>
       </c>
       <c r="E466">
         <v>38</v>
@@ -11225,21 +11351,24 @@
         <v>0.0905</v>
       </c>
       <c r="G466" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H466" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="467" spans="1:8">
       <c r="A467" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B467">
         <v>12</v>
       </c>
       <c r="C467" t="s">
-        <v>416</v>
+        <v>425</v>
+      </c>
+      <c r="D467" t="s">
+        <v>426</v>
       </c>
       <c r="E467">
         <v>1</v>
@@ -11248,21 +11377,21 @@
         <v>0.0024</v>
       </c>
       <c r="G467" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H467" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="468" spans="1:8">
       <c r="A468" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B468">
         <v>13</v>
       </c>
       <c r="C468" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="E468">
         <v>36</v>
@@ -11271,21 +11400,24 @@
         <v>0.0857</v>
       </c>
       <c r="G468" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H468" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="469" spans="1:8">
       <c r="A469" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B469">
         <v>13</v>
       </c>
       <c r="C469" t="s">
-        <v>418</v>
+        <v>428</v>
+      </c>
+      <c r="D469" t="s">
+        <v>426</v>
       </c>
       <c r="E469">
         <v>1</v>
@@ -11294,21 +11426,21 @@
         <v>0.0024</v>
       </c>
       <c r="G469" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H469" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="470" spans="1:8">
       <c r="A470" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B470">
         <v>14</v>
       </c>
       <c r="C470" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="E470">
         <v>13</v>
@@ -11317,21 +11449,21 @@
         <v>0.031</v>
       </c>
       <c r="G470" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H470" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="471" spans="1:8">
       <c r="A471" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B471">
         <v>15</v>
       </c>
       <c r="C471" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="E471">
         <v>12</v>
@@ -11340,21 +11472,21 @@
         <v>0.0286</v>
       </c>
       <c r="G471" t="s">
-        <v>407</v>
+        <v>416</v>
       </c>
       <c r="H471" t="s">
-        <v>408</v>
+        <v>417</v>
       </c>
     </row>
     <row r="472" spans="1:8">
       <c r="A472" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="B472">
         <v>16</v>
       </c>
       <c r="C472" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -11364,7 +11496,7 @@
     </row>
     <row r="475" spans="1:8">
       <c r="A475" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B475">
         <v>0</v>
@@ -11378,13 +11510,13 @@
     </row>
     <row r="476" spans="1:8">
       <c r="A476" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B476">
         <v>10</v>
       </c>
       <c r="C476" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="E476">
         <v>2</v>
@@ -11393,21 +11525,21 @@
         <v>0.0048</v>
       </c>
       <c r="G476" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H476" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="477" spans="1:8">
       <c r="A477" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B477">
         <v>11</v>
       </c>
       <c r="C477" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="E477">
         <v>106</v>
@@ -11416,21 +11548,21 @@
         <v>0.2524</v>
       </c>
       <c r="G477" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H477" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="478" spans="1:8">
       <c r="A478" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B478">
         <v>12</v>
       </c>
       <c r="C478" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E478">
         <v>1</v>
@@ -11439,21 +11571,21 @@
         <v>0.0024</v>
       </c>
       <c r="G478" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H478" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="479" spans="1:8">
       <c r="A479" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B479">
         <v>12</v>
       </c>
       <c r="C479" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E479">
         <v>5</v>
@@ -11462,21 +11594,21 @@
         <v>0.0119</v>
       </c>
       <c r="G479" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H479" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="480" spans="1:8">
       <c r="A480" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B480">
         <v>13</v>
       </c>
       <c r="C480" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="E480">
         <v>1</v>
@@ -11485,21 +11617,21 @@
         <v>0.0024</v>
       </c>
       <c r="G480" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H480" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="481" spans="1:8">
       <c r="A481" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B481">
         <v>14</v>
       </c>
       <c r="C481" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="E481">
         <v>8</v>
@@ -11508,21 +11640,21 @@
         <v>0.019</v>
       </c>
       <c r="G481" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H481" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="482" spans="1:8">
       <c r="A482" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B482">
         <v>15</v>
       </c>
       <c r="C482" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="E482">
         <v>135</v>
@@ -11531,21 +11663,21 @@
         <v>0.3214</v>
       </c>
       <c r="G482" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H482" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="483" spans="1:8">
       <c r="A483" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B483">
         <v>16</v>
       </c>
       <c r="C483" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="E483">
         <v>133</v>
@@ -11554,21 +11686,21 @@
         <v>0.3167</v>
       </c>
       <c r="G483" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H483" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="484" spans="1:8">
       <c r="A484" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B484">
         <v>17</v>
       </c>
       <c r="C484" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="E484">
         <v>24</v>
@@ -11577,21 +11709,21 @@
         <v>0.0571</v>
       </c>
       <c r="G484" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H484" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="485" spans="1:8">
       <c r="A485" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B485">
         <v>18</v>
       </c>
       <c r="C485" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="E485">
         <v>3</v>
@@ -11600,10 +11732,10 @@
         <v>0.0071</v>
       </c>
       <c r="G485" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="H485" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="486" spans="1:8">
